--- a/qian/template.xlsx
+++ b/qian/template.xlsx
@@ -9,34 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9945" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Source" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>现-主力月</t>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="m/d"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -87,24 +78,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -412,23 +393,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5000" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomRight" activeCell="G5023" sqref="G5023"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -41077,6842 +41056,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O366"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B334" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:O366"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1">
-      <c r="B1">
-        <v>2005</v>
-      </c>
-      <c r="C1" s="6">
-        <v>2006</v>
-      </c>
-      <c r="D1">
-        <v>2007</v>
-      </c>
-      <c r="E1" s="6">
-        <v>2008</v>
-      </c>
-      <c r="F1">
-        <v>2009</v>
-      </c>
-      <c r="G1" s="6">
-        <v>2010</v>
-      </c>
-      <c r="H1">
-        <v>2011</v>
-      </c>
-      <c r="I1" s="6">
-        <v>2012</v>
-      </c>
-      <c r="J1">
-        <v>2013</v>
-      </c>
-      <c r="K1" s="6">
-        <v>2014</v>
-      </c>
-      <c r="L1">
-        <v>2015</v>
-      </c>
-      <c r="M1" s="6">
-        <v>2016</v>
-      </c>
-      <c r="N1">
-        <v>2017</v>
-      </c>
-      <c r="O1" s="6">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="8">
-        <v>43101</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="8">
-        <v>43102</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="8">
-        <v>43103</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="8">
-        <v>43104</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="8">
-        <v>43105</v>
-      </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="8">
-        <v>43106</v>
-      </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="8">
-        <v>43107</v>
-      </c>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="8">
-        <v>43108</v>
-      </c>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="8">
-        <v>43109</v>
-      </c>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="8">
-        <v>43110</v>
-      </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="8">
-        <v>43111</v>
-      </c>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="8">
-        <v>43112</v>
-      </c>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="8">
-        <v>43113</v>
-      </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="8">
-        <v>43114</v>
-      </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="8">
-        <v>43115</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="8">
-        <v>43116</v>
-      </c>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="8">
-        <v>43117</v>
-      </c>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="8">
-        <v>43118</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="8">
-        <v>43119</v>
-      </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="8">
-        <v>43120</v>
-      </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="8">
-        <v>43121</v>
-      </c>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="8">
-        <v>43122</v>
-      </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="8">
-        <v>43123</v>
-      </c>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="8">
-        <v>43124</v>
-      </c>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="8">
-        <v>43125</v>
-      </c>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="8">
-        <v>43126</v>
-      </c>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="8">
-        <v>43127</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="8">
-        <v>43128</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="8">
-        <v>43129</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="8">
-        <v>43130</v>
-      </c>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="8">
-        <v>43131</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="8">
-        <v>43132</v>
-      </c>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="8">
-        <v>43133</v>
-      </c>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="8">
-        <v>43134</v>
-      </c>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="8">
-        <v>43135</v>
-      </c>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="8">
-        <v>43136</v>
-      </c>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="8">
-        <v>43137</v>
-      </c>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="8">
-        <v>43138</v>
-      </c>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="8">
-        <v>43139</v>
-      </c>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="8">
-        <v>43140</v>
-      </c>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="8">
-        <v>43141</v>
-      </c>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="8">
-        <v>43142</v>
-      </c>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="8">
-        <v>43143</v>
-      </c>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="8">
-        <v>43144</v>
-      </c>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="8">
-        <v>43145</v>
-      </c>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="8">
-        <v>43146</v>
-      </c>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="8">
-        <v>43147</v>
-      </c>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="8">
-        <v>43148</v>
-      </c>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="8">
-        <v>43149</v>
-      </c>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="8">
-        <v>43150</v>
-      </c>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
-      <c r="O51"/>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="8">
-        <v>43151</v>
-      </c>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="8">
-        <v>43152</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
-      <c r="O53"/>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="8">
-        <v>43153</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="8">
-        <v>43154</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55"/>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="8">
-        <v>43155</v>
-      </c>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-      <c r="O56"/>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="8">
-        <v>43156</v>
-      </c>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-      <c r="O57"/>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="8">
-        <v>43157</v>
-      </c>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="8">
-        <v>43158</v>
-      </c>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="8">
-        <v>43159</v>
-      </c>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="8">
-        <v>43160</v>
-      </c>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="8">
-        <v>43161</v>
-      </c>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="O62"/>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="8">
-        <v>43162</v>
-      </c>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-      <c r="O63"/>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="8">
-        <v>43163</v>
-      </c>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-      <c r="O64"/>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="8">
-        <v>43164</v>
-      </c>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-      <c r="O65"/>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="8">
-        <v>43165</v>
-      </c>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="O66"/>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="8">
-        <v>43166</v>
-      </c>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-      <c r="O67"/>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="8">
-        <v>43167</v>
-      </c>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="O68"/>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="8">
-        <v>43168</v>
-      </c>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-      <c r="O69"/>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="8">
-        <v>43169</v>
-      </c>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="8">
-        <v>43170</v>
-      </c>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-      <c r="O71"/>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="8">
-        <v>43171</v>
-      </c>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-      <c r="O72"/>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="8">
-        <v>43172</v>
-      </c>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="O73"/>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="8">
-        <v>43173</v>
-      </c>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="O74"/>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="8">
-        <v>43174</v>
-      </c>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="O75"/>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="8">
-        <v>43175</v>
-      </c>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76"/>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="8">
-        <v>43176</v>
-      </c>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="O77"/>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" s="8">
-        <v>43177</v>
-      </c>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78"/>
-      <c r="O78"/>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="A79" s="8">
-        <v>43178</v>
-      </c>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
-      <c r="O79"/>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80" s="8">
-        <v>43179</v>
-      </c>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="O80"/>
-    </row>
-    <row r="81" spans="1:15">
-      <c r="A81" s="8">
-        <v>43180</v>
-      </c>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-      <c r="L81"/>
-      <c r="M81"/>
-      <c r="N81"/>
-      <c r="O81"/>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="A82" s="8">
-        <v>43181</v>
-      </c>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
-      <c r="K82"/>
-      <c r="L82"/>
-      <c r="M82"/>
-      <c r="N82"/>
-      <c r="O82"/>
-    </row>
-    <row r="83" spans="1:15">
-      <c r="A83" s="8">
-        <v>43182</v>
-      </c>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
-      <c r="O83"/>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="8">
-        <v>43183</v>
-      </c>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84"/>
-      <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84"/>
-      <c r="O84"/>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="A85" s="8">
-        <v>43184</v>
-      </c>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85"/>
-      <c r="M85"/>
-      <c r="N85"/>
-      <c r="O85"/>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" s="8">
-        <v>43185</v>
-      </c>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
-      <c r="O86"/>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="A87" s="8">
-        <v>43186</v>
-      </c>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-      <c r="J87"/>
-      <c r="K87"/>
-      <c r="L87"/>
-      <c r="M87"/>
-      <c r="N87"/>
-      <c r="O87"/>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="A88" s="8">
-        <v>43187</v>
-      </c>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="L88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-      <c r="O88"/>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="A89" s="8">
-        <v>43188</v>
-      </c>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89"/>
-      <c r="L89"/>
-      <c r="M89"/>
-      <c r="N89"/>
-      <c r="O89"/>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="8">
-        <v>43189</v>
-      </c>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90"/>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="O90"/>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="A91" s="8">
-        <v>43190</v>
-      </c>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
-      <c r="J91"/>
-      <c r="K91"/>
-      <c r="L91"/>
-      <c r="M91"/>
-      <c r="N91"/>
-      <c r="O91"/>
-    </row>
-    <row r="92" spans="1:15">
-      <c r="A92" s="8">
-        <v>43191</v>
-      </c>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
-      <c r="J92"/>
-      <c r="K92"/>
-      <c r="L92"/>
-      <c r="M92"/>
-      <c r="N92"/>
-      <c r="O92"/>
-    </row>
-    <row r="93" spans="1:15">
-      <c r="A93" s="8">
-        <v>43192</v>
-      </c>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="J93"/>
-      <c r="K93"/>
-      <c r="L93"/>
-      <c r="M93"/>
-      <c r="N93"/>
-      <c r="O93"/>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="A94" s="8">
-        <v>43193</v>
-      </c>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-      <c r="J94"/>
-      <c r="K94"/>
-      <c r="L94"/>
-      <c r="M94"/>
-      <c r="N94"/>
-      <c r="O94"/>
-    </row>
-    <row r="95" spans="1:15">
-      <c r="A95" s="8">
-        <v>43194</v>
-      </c>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
-      <c r="J95"/>
-      <c r="K95"/>
-      <c r="L95"/>
-      <c r="M95"/>
-      <c r="N95"/>
-      <c r="O95"/>
-    </row>
-    <row r="96" spans="1:15">
-      <c r="A96" s="8">
-        <v>43195</v>
-      </c>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
-      <c r="K96"/>
-      <c r="L96"/>
-      <c r="M96"/>
-      <c r="N96"/>
-      <c r="O96"/>
-    </row>
-    <row r="97" spans="1:15">
-      <c r="A97" s="8">
-        <v>43196</v>
-      </c>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-      <c r="K97"/>
-      <c r="L97"/>
-      <c r="M97"/>
-      <c r="N97"/>
-      <c r="O97"/>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="A98" s="8">
-        <v>43197</v>
-      </c>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
-      <c r="J98"/>
-      <c r="K98"/>
-      <c r="L98"/>
-      <c r="M98"/>
-      <c r="N98"/>
-      <c r="O98"/>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="A99" s="8">
-        <v>43198</v>
-      </c>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
-      <c r="J99"/>
-      <c r="K99"/>
-      <c r="L99"/>
-      <c r="M99"/>
-      <c r="N99"/>
-      <c r="O99"/>
-    </row>
-    <row r="100" spans="1:15">
-      <c r="A100" s="8">
-        <v>43199</v>
-      </c>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
-      <c r="J100"/>
-      <c r="K100"/>
-      <c r="L100"/>
-      <c r="M100"/>
-      <c r="N100"/>
-      <c r="O100"/>
-    </row>
-    <row r="101" spans="1:15">
-      <c r="A101" s="8">
-        <v>43200</v>
-      </c>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
-      <c r="J101"/>
-      <c r="K101"/>
-      <c r="L101"/>
-      <c r="M101"/>
-      <c r="N101"/>
-      <c r="O101"/>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="A102" s="8">
-        <v>43201</v>
-      </c>
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102"/>
-      <c r="J102"/>
-      <c r="K102"/>
-      <c r="L102"/>
-      <c r="M102"/>
-      <c r="N102"/>
-      <c r="O102"/>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="A103" s="8">
-        <v>43202</v>
-      </c>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="I103"/>
-      <c r="J103"/>
-      <c r="K103"/>
-      <c r="L103"/>
-      <c r="M103"/>
-      <c r="N103"/>
-      <c r="O103"/>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="8">
-        <v>43203</v>
-      </c>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104"/>
-      <c r="I104"/>
-      <c r="J104"/>
-      <c r="K104"/>
-      <c r="L104"/>
-      <c r="M104"/>
-      <c r="N104"/>
-      <c r="O104"/>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="A105" s="8">
-        <v>43204</v>
-      </c>
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
-      <c r="G105"/>
-      <c r="H105"/>
-      <c r="I105"/>
-      <c r="J105"/>
-      <c r="K105"/>
-      <c r="L105"/>
-      <c r="M105"/>
-      <c r="N105"/>
-      <c r="O105"/>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="A106" s="8">
-        <v>43205</v>
-      </c>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
-      <c r="J106"/>
-      <c r="K106"/>
-      <c r="L106"/>
-      <c r="M106"/>
-      <c r="N106"/>
-      <c r="O106"/>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107" s="8">
-        <v>43206</v>
-      </c>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
-      <c r="J107"/>
-      <c r="K107"/>
-      <c r="L107"/>
-      <c r="M107"/>
-      <c r="N107"/>
-      <c r="O107"/>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108" s="8">
-        <v>43207</v>
-      </c>
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="J108"/>
-      <c r="K108"/>
-      <c r="L108"/>
-      <c r="M108"/>
-      <c r="N108"/>
-      <c r="O108"/>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="A109" s="8">
-        <v>43208</v>
-      </c>
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109"/>
-      <c r="G109"/>
-      <c r="H109"/>
-      <c r="I109"/>
-      <c r="J109"/>
-      <c r="K109"/>
-      <c r="L109"/>
-      <c r="M109"/>
-      <c r="N109"/>
-      <c r="O109"/>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="A110" s="8">
-        <v>43209</v>
-      </c>
-      <c r="B110"/>
-      <c r="C110"/>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="H110"/>
-      <c r="I110"/>
-      <c r="J110"/>
-      <c r="K110"/>
-      <c r="L110"/>
-      <c r="M110"/>
-      <c r="N110"/>
-      <c r="O110"/>
-    </row>
-    <row r="111" spans="1:15">
-      <c r="A111" s="8">
-        <v>43210</v>
-      </c>
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111"/>
-      <c r="F111"/>
-      <c r="G111"/>
-      <c r="H111"/>
-      <c r="I111"/>
-      <c r="J111"/>
-      <c r="K111"/>
-      <c r="L111"/>
-      <c r="M111"/>
-      <c r="N111"/>
-      <c r="O111"/>
-    </row>
-    <row r="112" spans="1:15">
-      <c r="A112" s="8">
-        <v>43211</v>
-      </c>
-      <c r="B112"/>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112"/>
-      <c r="G112"/>
-      <c r="H112"/>
-      <c r="I112"/>
-      <c r="J112"/>
-      <c r="K112"/>
-      <c r="L112"/>
-      <c r="M112"/>
-      <c r="N112"/>
-      <c r="O112"/>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="A113" s="8">
-        <v>43212</v>
-      </c>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113"/>
-      <c r="H113"/>
-      <c r="I113"/>
-      <c r="J113"/>
-      <c r="K113"/>
-      <c r="L113"/>
-      <c r="M113"/>
-      <c r="N113"/>
-      <c r="O113"/>
-    </row>
-    <row r="114" spans="1:15">
-      <c r="A114" s="8">
-        <v>43213</v>
-      </c>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114"/>
-      <c r="G114"/>
-      <c r="H114"/>
-      <c r="I114"/>
-      <c r="J114"/>
-      <c r="K114"/>
-      <c r="L114"/>
-      <c r="M114"/>
-      <c r="N114"/>
-      <c r="O114"/>
-    </row>
-    <row r="115" spans="1:15">
-      <c r="A115" s="8">
-        <v>43214</v>
-      </c>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115"/>
-      <c r="G115"/>
-      <c r="H115"/>
-      <c r="I115"/>
-      <c r="J115"/>
-      <c r="K115"/>
-      <c r="L115"/>
-      <c r="M115"/>
-      <c r="N115"/>
-      <c r="O115"/>
-    </row>
-    <row r="116" spans="1:15">
-      <c r="A116" s="8">
-        <v>43215</v>
-      </c>
-      <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116"/>
-      <c r="E116"/>
-      <c r="F116"/>
-      <c r="G116"/>
-      <c r="H116"/>
-      <c r="I116"/>
-      <c r="J116"/>
-      <c r="K116"/>
-      <c r="L116"/>
-      <c r="M116"/>
-      <c r="N116"/>
-      <c r="O116"/>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="A117" s="8">
-        <v>43216</v>
-      </c>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
-      <c r="F117"/>
-      <c r="G117"/>
-      <c r="H117"/>
-      <c r="I117"/>
-      <c r="J117"/>
-      <c r="K117"/>
-      <c r="L117"/>
-      <c r="M117"/>
-      <c r="N117"/>
-      <c r="O117"/>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="A118" s="8">
-        <v>43217</v>
-      </c>
-      <c r="B118"/>
-      <c r="C118"/>
-      <c r="D118"/>
-      <c r="E118"/>
-      <c r="F118"/>
-      <c r="G118"/>
-      <c r="H118"/>
-      <c r="I118"/>
-      <c r="J118"/>
-      <c r="K118"/>
-      <c r="L118"/>
-      <c r="M118"/>
-      <c r="N118"/>
-      <c r="O118"/>
-    </row>
-    <row r="119" spans="1:15">
-      <c r="A119" s="8">
-        <v>43218</v>
-      </c>
-      <c r="B119"/>
-      <c r="C119"/>
-      <c r="D119"/>
-      <c r="E119"/>
-      <c r="F119"/>
-      <c r="G119"/>
-      <c r="H119"/>
-      <c r="I119"/>
-      <c r="J119"/>
-      <c r="K119"/>
-      <c r="L119"/>
-      <c r="M119"/>
-      <c r="N119"/>
-      <c r="O119"/>
-    </row>
-    <row r="120" spans="1:15">
-      <c r="A120" s="8">
-        <v>43219</v>
-      </c>
-      <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
-      <c r="E120"/>
-      <c r="F120"/>
-      <c r="G120"/>
-      <c r="H120"/>
-      <c r="I120"/>
-      <c r="J120"/>
-      <c r="K120"/>
-      <c r="L120"/>
-      <c r="M120"/>
-      <c r="N120"/>
-      <c r="O120"/>
-    </row>
-    <row r="121" spans="1:15">
-      <c r="A121" s="8">
-        <v>43220</v>
-      </c>
-      <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121"/>
-      <c r="F121"/>
-      <c r="G121"/>
-      <c r="H121"/>
-      <c r="I121"/>
-      <c r="J121"/>
-      <c r="K121"/>
-      <c r="L121"/>
-      <c r="M121"/>
-      <c r="N121"/>
-      <c r="O121"/>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="A122" s="8">
-        <v>43221</v>
-      </c>
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
-      <c r="G122"/>
-      <c r="H122"/>
-      <c r="I122"/>
-      <c r="J122"/>
-      <c r="K122"/>
-      <c r="L122"/>
-      <c r="M122"/>
-      <c r="N122"/>
-      <c r="O122"/>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="A123" s="8">
-        <v>43222</v>
-      </c>
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123"/>
-      <c r="G123"/>
-      <c r="H123"/>
-      <c r="I123"/>
-      <c r="J123"/>
-      <c r="K123"/>
-      <c r="L123"/>
-      <c r="M123"/>
-      <c r="N123"/>
-      <c r="O123"/>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="A124" s="8">
-        <v>43223</v>
-      </c>
-      <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124"/>
-      <c r="G124"/>
-      <c r="H124"/>
-      <c r="I124"/>
-      <c r="J124"/>
-      <c r="K124"/>
-      <c r="L124"/>
-      <c r="M124"/>
-      <c r="N124"/>
-      <c r="O124"/>
-    </row>
-    <row r="125" spans="1:15">
-      <c r="A125" s="8">
-        <v>43224</v>
-      </c>
-      <c r="B125"/>
-      <c r="C125"/>
-      <c r="D125"/>
-      <c r="E125"/>
-      <c r="F125"/>
-      <c r="G125"/>
-      <c r="H125"/>
-      <c r="I125"/>
-      <c r="J125"/>
-      <c r="K125"/>
-      <c r="L125"/>
-      <c r="M125"/>
-      <c r="N125"/>
-      <c r="O125"/>
-    </row>
-    <row r="126" spans="1:15">
-      <c r="A126" s="8">
-        <v>43225</v>
-      </c>
-      <c r="B126"/>
-      <c r="C126"/>
-      <c r="D126"/>
-      <c r="E126"/>
-      <c r="F126"/>
-      <c r="G126"/>
-      <c r="H126"/>
-      <c r="I126"/>
-      <c r="J126"/>
-      <c r="K126"/>
-      <c r="L126"/>
-      <c r="M126"/>
-      <c r="N126"/>
-      <c r="O126"/>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="A127" s="8">
-        <v>43226</v>
-      </c>
-      <c r="B127"/>
-      <c r="C127"/>
-      <c r="D127"/>
-      <c r="E127"/>
-      <c r="F127"/>
-      <c r="G127"/>
-      <c r="H127"/>
-      <c r="I127"/>
-      <c r="J127"/>
-      <c r="K127"/>
-      <c r="L127"/>
-      <c r="M127"/>
-      <c r="N127"/>
-      <c r="O127"/>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="A128" s="8">
-        <v>43227</v>
-      </c>
-      <c r="B128"/>
-      <c r="C128"/>
-      <c r="D128"/>
-      <c r="E128"/>
-      <c r="F128"/>
-      <c r="G128"/>
-      <c r="H128"/>
-      <c r="I128"/>
-      <c r="J128"/>
-      <c r="K128"/>
-      <c r="L128"/>
-      <c r="M128"/>
-      <c r="N128"/>
-      <c r="O128"/>
-    </row>
-    <row r="129" spans="1:15">
-      <c r="A129" s="8">
-        <v>43228</v>
-      </c>
-      <c r="B129"/>
-      <c r="C129"/>
-      <c r="D129"/>
-      <c r="E129"/>
-      <c r="F129"/>
-      <c r="G129"/>
-      <c r="H129"/>
-      <c r="I129"/>
-      <c r="J129"/>
-      <c r="K129"/>
-      <c r="L129"/>
-      <c r="M129"/>
-      <c r="N129"/>
-      <c r="O129"/>
-    </row>
-    <row r="130" spans="1:15">
-      <c r="A130" s="8">
-        <v>43229</v>
-      </c>
-      <c r="B130"/>
-      <c r="C130"/>
-      <c r="D130"/>
-      <c r="E130"/>
-      <c r="F130"/>
-      <c r="G130"/>
-      <c r="H130"/>
-      <c r="I130"/>
-      <c r="J130"/>
-      <c r="K130"/>
-      <c r="L130"/>
-      <c r="M130"/>
-      <c r="N130"/>
-      <c r="O130"/>
-    </row>
-    <row r="131" spans="1:15">
-      <c r="A131" s="8">
-        <v>43230</v>
-      </c>
-      <c r="B131"/>
-      <c r="C131"/>
-      <c r="D131"/>
-      <c r="E131"/>
-      <c r="F131"/>
-      <c r="G131"/>
-      <c r="H131"/>
-      <c r="I131"/>
-      <c r="J131"/>
-      <c r="K131"/>
-      <c r="L131"/>
-      <c r="M131"/>
-      <c r="N131"/>
-      <c r="O131"/>
-    </row>
-    <row r="132" spans="1:15">
-      <c r="A132" s="8">
-        <v>43231</v>
-      </c>
-      <c r="B132"/>
-      <c r="C132"/>
-      <c r="D132"/>
-      <c r="E132"/>
-      <c r="F132"/>
-      <c r="G132"/>
-      <c r="H132"/>
-      <c r="I132"/>
-      <c r="J132"/>
-      <c r="K132"/>
-      <c r="L132"/>
-      <c r="M132"/>
-      <c r="N132"/>
-      <c r="O132"/>
-    </row>
-    <row r="133" spans="1:15">
-      <c r="A133" s="8">
-        <v>43232</v>
-      </c>
-      <c r="B133"/>
-      <c r="C133"/>
-      <c r="D133"/>
-      <c r="E133"/>
-      <c r="F133"/>
-      <c r="G133"/>
-      <c r="H133"/>
-      <c r="I133"/>
-      <c r="J133"/>
-      <c r="K133"/>
-      <c r="L133"/>
-      <c r="M133"/>
-      <c r="N133"/>
-      <c r="O133"/>
-    </row>
-    <row r="134" spans="1:15">
-      <c r="A134" s="8">
-        <v>43233</v>
-      </c>
-      <c r="B134"/>
-      <c r="C134"/>
-      <c r="D134"/>
-      <c r="E134"/>
-      <c r="F134"/>
-      <c r="G134"/>
-      <c r="H134"/>
-      <c r="I134"/>
-      <c r="J134"/>
-      <c r="K134"/>
-      <c r="L134"/>
-      <c r="M134"/>
-      <c r="N134"/>
-      <c r="O134"/>
-    </row>
-    <row r="135" spans="1:15">
-      <c r="A135" s="8">
-        <v>43234</v>
-      </c>
-      <c r="B135"/>
-      <c r="C135"/>
-      <c r="D135"/>
-      <c r="E135"/>
-      <c r="F135"/>
-      <c r="G135"/>
-      <c r="H135"/>
-      <c r="I135"/>
-      <c r="J135"/>
-      <c r="K135"/>
-      <c r="L135"/>
-      <c r="M135"/>
-      <c r="N135"/>
-      <c r="O135"/>
-    </row>
-    <row r="136" spans="1:15">
-      <c r="A136" s="8">
-        <v>43235</v>
-      </c>
-      <c r="B136"/>
-      <c r="C136"/>
-      <c r="D136"/>
-      <c r="E136"/>
-      <c r="F136"/>
-      <c r="G136"/>
-      <c r="H136"/>
-      <c r="I136"/>
-      <c r="J136"/>
-      <c r="K136"/>
-      <c r="L136"/>
-      <c r="M136"/>
-      <c r="N136"/>
-      <c r="O136"/>
-    </row>
-    <row r="137" spans="1:15">
-      <c r="A137" s="8">
-        <v>43236</v>
-      </c>
-      <c r="B137"/>
-      <c r="C137"/>
-      <c r="D137"/>
-      <c r="E137"/>
-      <c r="F137"/>
-      <c r="G137"/>
-      <c r="H137"/>
-      <c r="I137"/>
-      <c r="J137"/>
-      <c r="K137"/>
-      <c r="L137"/>
-      <c r="M137"/>
-      <c r="N137"/>
-      <c r="O137"/>
-    </row>
-    <row r="138" spans="1:15">
-      <c r="A138" s="8">
-        <v>43237</v>
-      </c>
-      <c r="B138"/>
-      <c r="C138"/>
-      <c r="D138"/>
-      <c r="E138"/>
-      <c r="F138"/>
-      <c r="G138"/>
-      <c r="H138"/>
-      <c r="I138"/>
-      <c r="J138"/>
-      <c r="K138"/>
-      <c r="L138"/>
-      <c r="M138"/>
-      <c r="N138"/>
-      <c r="O138"/>
-    </row>
-    <row r="139" spans="1:15">
-      <c r="A139" s="8">
-        <v>43238</v>
-      </c>
-      <c r="B139"/>
-      <c r="C139"/>
-      <c r="D139"/>
-      <c r="E139"/>
-      <c r="F139"/>
-      <c r="G139"/>
-      <c r="H139"/>
-      <c r="I139"/>
-      <c r="J139"/>
-      <c r="K139"/>
-      <c r="L139"/>
-      <c r="M139"/>
-      <c r="N139"/>
-      <c r="O139"/>
-    </row>
-    <row r="140" spans="1:15">
-      <c r="A140" s="8">
-        <v>43239</v>
-      </c>
-      <c r="B140"/>
-      <c r="C140"/>
-      <c r="D140"/>
-      <c r="E140"/>
-      <c r="F140"/>
-      <c r="G140"/>
-      <c r="H140"/>
-      <c r="I140"/>
-      <c r="J140"/>
-      <c r="K140"/>
-      <c r="L140"/>
-      <c r="M140"/>
-      <c r="N140"/>
-      <c r="O140"/>
-    </row>
-    <row r="141" spans="1:15">
-      <c r="A141" s="8">
-        <v>43240</v>
-      </c>
-      <c r="B141"/>
-      <c r="C141"/>
-      <c r="D141"/>
-      <c r="E141"/>
-      <c r="F141"/>
-      <c r="G141"/>
-      <c r="H141"/>
-      <c r="I141"/>
-      <c r="J141"/>
-      <c r="K141"/>
-      <c r="L141"/>
-      <c r="M141"/>
-      <c r="N141"/>
-      <c r="O141"/>
-    </row>
-    <row r="142" spans="1:15">
-      <c r="A142" s="8">
-        <v>43241</v>
-      </c>
-      <c r="B142"/>
-      <c r="C142"/>
-      <c r="D142"/>
-      <c r="E142"/>
-      <c r="F142"/>
-      <c r="G142"/>
-      <c r="H142"/>
-      <c r="I142"/>
-      <c r="J142"/>
-      <c r="K142"/>
-      <c r="L142"/>
-      <c r="M142"/>
-      <c r="N142"/>
-      <c r="O142"/>
-    </row>
-    <row r="143" spans="1:15">
-      <c r="A143" s="8">
-        <v>43242</v>
-      </c>
-      <c r="B143"/>
-      <c r="C143"/>
-      <c r="D143"/>
-      <c r="E143"/>
-      <c r="F143"/>
-      <c r="G143"/>
-      <c r="H143"/>
-      <c r="I143"/>
-      <c r="J143"/>
-      <c r="K143"/>
-      <c r="L143"/>
-      <c r="M143"/>
-      <c r="N143"/>
-      <c r="O143"/>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="A144" s="8">
-        <v>43243</v>
-      </c>
-      <c r="B144"/>
-      <c r="C144"/>
-      <c r="D144"/>
-      <c r="E144"/>
-      <c r="F144"/>
-      <c r="G144"/>
-      <c r="H144"/>
-      <c r="I144"/>
-      <c r="J144"/>
-      <c r="K144"/>
-      <c r="L144"/>
-      <c r="M144"/>
-      <c r="N144"/>
-      <c r="O144"/>
-    </row>
-    <row r="145" spans="1:15">
-      <c r="A145" s="8">
-        <v>43244</v>
-      </c>
-      <c r="B145"/>
-      <c r="C145"/>
-      <c r="D145"/>
-      <c r="E145"/>
-      <c r="F145"/>
-      <c r="G145"/>
-      <c r="H145"/>
-      <c r="I145"/>
-      <c r="J145"/>
-      <c r="K145"/>
-      <c r="L145"/>
-      <c r="M145"/>
-      <c r="N145"/>
-      <c r="O145"/>
-    </row>
-    <row r="146" spans="1:15">
-      <c r="A146" s="8">
-        <v>43245</v>
-      </c>
-      <c r="B146"/>
-      <c r="C146"/>
-      <c r="D146"/>
-      <c r="E146"/>
-      <c r="F146"/>
-      <c r="G146"/>
-      <c r="H146"/>
-      <c r="I146"/>
-      <c r="J146"/>
-      <c r="K146"/>
-      <c r="L146"/>
-      <c r="M146"/>
-      <c r="N146"/>
-      <c r="O146"/>
-    </row>
-    <row r="147" spans="1:15">
-      <c r="A147" s="8">
-        <v>43246</v>
-      </c>
-      <c r="B147"/>
-      <c r="C147"/>
-      <c r="D147"/>
-      <c r="E147"/>
-      <c r="F147"/>
-      <c r="G147"/>
-      <c r="H147"/>
-      <c r="I147"/>
-      <c r="J147"/>
-      <c r="K147"/>
-      <c r="L147"/>
-      <c r="M147"/>
-      <c r="N147"/>
-      <c r="O147"/>
-    </row>
-    <row r="148" spans="1:15">
-      <c r="A148" s="8">
-        <v>43247</v>
-      </c>
-      <c r="B148"/>
-      <c r="C148"/>
-      <c r="D148"/>
-      <c r="E148"/>
-      <c r="F148"/>
-      <c r="G148"/>
-      <c r="H148"/>
-      <c r="I148"/>
-      <c r="J148"/>
-      <c r="K148"/>
-      <c r="L148"/>
-      <c r="M148"/>
-      <c r="N148"/>
-      <c r="O148"/>
-    </row>
-    <row r="149" spans="1:15">
-      <c r="A149" s="8">
-        <v>43248</v>
-      </c>
-      <c r="B149"/>
-      <c r="C149"/>
-      <c r="D149"/>
-      <c r="E149"/>
-      <c r="F149"/>
-      <c r="G149"/>
-      <c r="H149"/>
-      <c r="I149"/>
-      <c r="J149"/>
-      <c r="K149"/>
-      <c r="L149"/>
-      <c r="M149"/>
-      <c r="N149"/>
-      <c r="O149"/>
-    </row>
-    <row r="150" spans="1:15">
-      <c r="A150" s="8">
-        <v>43249</v>
-      </c>
-      <c r="B150"/>
-      <c r="C150"/>
-      <c r="D150"/>
-      <c r="E150"/>
-      <c r="F150"/>
-      <c r="G150"/>
-      <c r="H150"/>
-      <c r="I150"/>
-      <c r="J150"/>
-      <c r="K150"/>
-      <c r="L150"/>
-      <c r="M150"/>
-      <c r="N150"/>
-      <c r="O150"/>
-    </row>
-    <row r="151" spans="1:15">
-      <c r="A151" s="8">
-        <v>43250</v>
-      </c>
-      <c r="B151"/>
-      <c r="C151"/>
-      <c r="D151"/>
-      <c r="E151"/>
-      <c r="F151"/>
-      <c r="G151"/>
-      <c r="H151"/>
-      <c r="I151"/>
-      <c r="J151"/>
-      <c r="K151"/>
-      <c r="L151"/>
-      <c r="M151"/>
-      <c r="N151"/>
-      <c r="O151"/>
-    </row>
-    <row r="152" spans="1:15">
-      <c r="A152" s="8">
-        <v>43251</v>
-      </c>
-      <c r="B152"/>
-      <c r="C152"/>
-      <c r="D152"/>
-      <c r="E152"/>
-      <c r="F152"/>
-      <c r="G152"/>
-      <c r="H152"/>
-      <c r="I152"/>
-      <c r="J152"/>
-      <c r="K152"/>
-      <c r="L152"/>
-      <c r="M152"/>
-      <c r="N152"/>
-      <c r="O152"/>
-    </row>
-    <row r="153" spans="1:15">
-      <c r="A153" s="8">
-        <v>43252</v>
-      </c>
-      <c r="B153"/>
-      <c r="C153"/>
-      <c r="D153"/>
-      <c r="E153"/>
-      <c r="F153"/>
-      <c r="G153"/>
-      <c r="H153"/>
-      <c r="I153"/>
-      <c r="J153"/>
-      <c r="K153"/>
-      <c r="L153"/>
-      <c r="M153"/>
-      <c r="N153"/>
-      <c r="O153"/>
-    </row>
-    <row r="154" spans="1:15">
-      <c r="A154" s="8">
-        <v>43253</v>
-      </c>
-      <c r="B154"/>
-      <c r="C154"/>
-      <c r="D154"/>
-      <c r="E154"/>
-      <c r="F154"/>
-      <c r="G154"/>
-      <c r="H154"/>
-      <c r="I154"/>
-      <c r="J154"/>
-      <c r="K154"/>
-      <c r="L154"/>
-      <c r="M154"/>
-      <c r="N154"/>
-      <c r="O154"/>
-    </row>
-    <row r="155" spans="1:15">
-      <c r="A155" s="8">
-        <v>43254</v>
-      </c>
-      <c r="B155"/>
-      <c r="C155"/>
-      <c r="D155"/>
-      <c r="E155"/>
-      <c r="F155"/>
-      <c r="G155"/>
-      <c r="H155"/>
-      <c r="I155"/>
-      <c r="J155"/>
-      <c r="K155"/>
-      <c r="L155"/>
-      <c r="M155"/>
-      <c r="N155"/>
-      <c r="O155"/>
-    </row>
-    <row r="156" spans="1:15">
-      <c r="A156" s="8">
-        <v>43255</v>
-      </c>
-      <c r="B156"/>
-      <c r="C156"/>
-      <c r="D156"/>
-      <c r="E156"/>
-      <c r="F156"/>
-      <c r="G156"/>
-      <c r="H156"/>
-      <c r="I156"/>
-      <c r="J156"/>
-      <c r="K156"/>
-      <c r="L156"/>
-      <c r="M156"/>
-      <c r="N156"/>
-      <c r="O156"/>
-    </row>
-    <row r="157" spans="1:15">
-      <c r="A157" s="8">
-        <v>43256</v>
-      </c>
-      <c r="B157"/>
-      <c r="C157"/>
-      <c r="D157"/>
-      <c r="E157"/>
-      <c r="F157"/>
-      <c r="G157"/>
-      <c r="H157"/>
-      <c r="I157"/>
-      <c r="J157"/>
-      <c r="K157"/>
-      <c r="L157"/>
-      <c r="M157"/>
-      <c r="N157"/>
-      <c r="O157"/>
-    </row>
-    <row r="158" spans="1:15">
-      <c r="A158" s="8">
-        <v>43257</v>
-      </c>
-      <c r="B158"/>
-      <c r="C158"/>
-      <c r="D158"/>
-      <c r="E158"/>
-      <c r="F158"/>
-      <c r="G158"/>
-      <c r="H158"/>
-      <c r="I158"/>
-      <c r="J158"/>
-      <c r="K158"/>
-      <c r="L158"/>
-      <c r="M158"/>
-      <c r="N158"/>
-      <c r="O158"/>
-    </row>
-    <row r="159" spans="1:15">
-      <c r="A159" s="8">
-        <v>43258</v>
-      </c>
-      <c r="B159"/>
-      <c r="C159"/>
-      <c r="D159"/>
-      <c r="E159"/>
-      <c r="F159"/>
-      <c r="G159"/>
-      <c r="H159"/>
-      <c r="I159"/>
-      <c r="J159"/>
-      <c r="K159"/>
-      <c r="L159"/>
-      <c r="M159"/>
-      <c r="N159"/>
-      <c r="O159"/>
-    </row>
-    <row r="160" spans="1:15">
-      <c r="A160" s="8">
-        <v>43259</v>
-      </c>
-      <c r="B160"/>
-      <c r="C160"/>
-      <c r="D160"/>
-      <c r="E160"/>
-      <c r="F160"/>
-      <c r="G160"/>
-      <c r="H160"/>
-      <c r="I160"/>
-      <c r="J160"/>
-      <c r="K160"/>
-      <c r="L160"/>
-      <c r="M160"/>
-      <c r="N160"/>
-      <c r="O160"/>
-    </row>
-    <row r="161" spans="1:15">
-      <c r="A161" s="8">
-        <v>43260</v>
-      </c>
-      <c r="B161"/>
-      <c r="C161"/>
-      <c r="D161"/>
-      <c r="E161"/>
-      <c r="F161"/>
-      <c r="G161"/>
-      <c r="H161"/>
-      <c r="I161"/>
-      <c r="J161"/>
-      <c r="K161"/>
-      <c r="L161"/>
-      <c r="M161"/>
-      <c r="N161"/>
-      <c r="O161"/>
-    </row>
-    <row r="162" spans="1:15">
-      <c r="A162" s="8">
-        <v>43261</v>
-      </c>
-      <c r="B162"/>
-      <c r="C162"/>
-      <c r="D162"/>
-      <c r="E162"/>
-      <c r="F162"/>
-      <c r="G162"/>
-      <c r="H162"/>
-      <c r="I162"/>
-      <c r="J162"/>
-      <c r="K162"/>
-      <c r="L162"/>
-      <c r="M162"/>
-      <c r="N162"/>
-      <c r="O162"/>
-    </row>
-    <row r="163" spans="1:15">
-      <c r="A163" s="8">
-        <v>43262</v>
-      </c>
-      <c r="B163"/>
-      <c r="C163"/>
-      <c r="D163"/>
-      <c r="E163"/>
-      <c r="F163"/>
-      <c r="G163"/>
-      <c r="H163"/>
-      <c r="I163"/>
-      <c r="J163"/>
-      <c r="K163"/>
-      <c r="L163"/>
-      <c r="M163"/>
-      <c r="N163"/>
-      <c r="O163"/>
-    </row>
-    <row r="164" spans="1:15">
-      <c r="A164" s="8">
-        <v>43263</v>
-      </c>
-      <c r="B164"/>
-      <c r="C164"/>
-      <c r="D164"/>
-      <c r="E164"/>
-      <c r="F164"/>
-      <c r="G164"/>
-      <c r="H164"/>
-      <c r="I164"/>
-      <c r="J164"/>
-      <c r="K164"/>
-      <c r="L164"/>
-      <c r="M164"/>
-      <c r="N164"/>
-      <c r="O164"/>
-    </row>
-    <row r="165" spans="1:15">
-      <c r="A165" s="8">
-        <v>43264</v>
-      </c>
-      <c r="B165"/>
-      <c r="C165"/>
-      <c r="D165"/>
-      <c r="E165"/>
-      <c r="F165"/>
-      <c r="G165"/>
-      <c r="H165"/>
-      <c r="I165"/>
-      <c r="J165"/>
-      <c r="K165"/>
-      <c r="L165"/>
-      <c r="M165"/>
-      <c r="N165"/>
-      <c r="O165"/>
-    </row>
-    <row r="166" spans="1:15">
-      <c r="A166" s="8">
-        <v>43265</v>
-      </c>
-      <c r="B166"/>
-      <c r="C166"/>
-      <c r="D166"/>
-      <c r="E166"/>
-      <c r="F166"/>
-      <c r="G166"/>
-      <c r="H166"/>
-      <c r="I166"/>
-      <c r="J166"/>
-      <c r="K166"/>
-      <c r="L166"/>
-      <c r="M166"/>
-      <c r="N166"/>
-      <c r="O166"/>
-    </row>
-    <row r="167" spans="1:15">
-      <c r="A167" s="8">
-        <v>43266</v>
-      </c>
-      <c r="B167"/>
-      <c r="C167"/>
-      <c r="D167"/>
-      <c r="E167"/>
-      <c r="F167"/>
-      <c r="G167"/>
-      <c r="H167"/>
-      <c r="I167"/>
-      <c r="J167"/>
-      <c r="K167"/>
-      <c r="L167"/>
-      <c r="M167"/>
-      <c r="N167"/>
-      <c r="O167"/>
-    </row>
-    <row r="168" spans="1:15">
-      <c r="A168" s="8">
-        <v>43267</v>
-      </c>
-      <c r="B168"/>
-      <c r="C168"/>
-      <c r="D168"/>
-      <c r="E168"/>
-      <c r="F168"/>
-      <c r="G168"/>
-      <c r="H168"/>
-      <c r="I168"/>
-      <c r="J168"/>
-      <c r="K168"/>
-      <c r="L168"/>
-      <c r="M168"/>
-      <c r="N168"/>
-      <c r="O168"/>
-    </row>
-    <row r="169" spans="1:15">
-      <c r="A169" s="8">
-        <v>43268</v>
-      </c>
-      <c r="B169"/>
-      <c r="C169"/>
-      <c r="D169"/>
-      <c r="E169"/>
-      <c r="F169"/>
-      <c r="G169"/>
-      <c r="H169"/>
-      <c r="I169"/>
-      <c r="J169"/>
-      <c r="K169"/>
-      <c r="L169"/>
-      <c r="M169"/>
-      <c r="N169"/>
-      <c r="O169"/>
-    </row>
-    <row r="170" spans="1:15">
-      <c r="A170" s="8">
-        <v>43269</v>
-      </c>
-      <c r="B170"/>
-      <c r="C170"/>
-      <c r="D170"/>
-      <c r="E170"/>
-      <c r="F170"/>
-      <c r="G170"/>
-      <c r="H170"/>
-      <c r="I170"/>
-      <c r="J170"/>
-      <c r="K170"/>
-      <c r="L170"/>
-      <c r="M170"/>
-      <c r="N170"/>
-      <c r="O170"/>
-    </row>
-    <row r="171" spans="1:15">
-      <c r="A171" s="8">
-        <v>43270</v>
-      </c>
-      <c r="B171"/>
-      <c r="C171"/>
-      <c r="D171"/>
-      <c r="E171"/>
-      <c r="F171"/>
-      <c r="G171"/>
-      <c r="H171"/>
-      <c r="I171"/>
-      <c r="J171"/>
-      <c r="K171"/>
-      <c r="L171"/>
-      <c r="M171"/>
-      <c r="N171"/>
-      <c r="O171"/>
-    </row>
-    <row r="172" spans="1:15">
-      <c r="A172" s="8">
-        <v>43271</v>
-      </c>
-      <c r="B172"/>
-      <c r="C172"/>
-      <c r="D172"/>
-      <c r="E172"/>
-      <c r="F172"/>
-      <c r="G172"/>
-      <c r="H172"/>
-      <c r="I172"/>
-      <c r="J172"/>
-      <c r="K172"/>
-      <c r="L172"/>
-      <c r="M172"/>
-      <c r="N172"/>
-      <c r="O172"/>
-    </row>
-    <row r="173" spans="1:15">
-      <c r="A173" s="8">
-        <v>43272</v>
-      </c>
-      <c r="B173"/>
-      <c r="C173"/>
-      <c r="D173"/>
-      <c r="E173"/>
-      <c r="F173"/>
-      <c r="G173"/>
-      <c r="H173"/>
-      <c r="I173"/>
-      <c r="J173"/>
-      <c r="K173"/>
-      <c r="L173"/>
-      <c r="M173"/>
-      <c r="N173"/>
-      <c r="O173"/>
-    </row>
-    <row r="174" spans="1:15">
-      <c r="A174" s="8">
-        <v>43273</v>
-      </c>
-      <c r="B174"/>
-      <c r="C174"/>
-      <c r="D174"/>
-      <c r="E174"/>
-      <c r="F174"/>
-      <c r="G174"/>
-      <c r="H174"/>
-      <c r="I174"/>
-      <c r="J174"/>
-      <c r="K174"/>
-      <c r="L174"/>
-      <c r="M174"/>
-      <c r="N174"/>
-      <c r="O174"/>
-    </row>
-    <row r="175" spans="1:15">
-      <c r="A175" s="8">
-        <v>43274</v>
-      </c>
-      <c r="B175"/>
-      <c r="C175"/>
-      <c r="D175"/>
-      <c r="E175"/>
-      <c r="F175"/>
-      <c r="G175"/>
-      <c r="H175"/>
-      <c r="I175"/>
-      <c r="J175"/>
-      <c r="K175"/>
-      <c r="L175"/>
-      <c r="M175"/>
-      <c r="N175"/>
-      <c r="O175"/>
-    </row>
-    <row r="176" spans="1:15">
-      <c r="A176" s="8">
-        <v>43275</v>
-      </c>
-      <c r="B176"/>
-      <c r="C176"/>
-      <c r="D176"/>
-      <c r="E176"/>
-      <c r="F176"/>
-      <c r="G176"/>
-      <c r="H176"/>
-      <c r="I176"/>
-      <c r="J176"/>
-      <c r="K176"/>
-      <c r="L176"/>
-      <c r="M176"/>
-      <c r="N176"/>
-      <c r="O176"/>
-    </row>
-    <row r="177" spans="1:15">
-      <c r="A177" s="8">
-        <v>43276</v>
-      </c>
-      <c r="B177"/>
-      <c r="C177"/>
-      <c r="D177"/>
-      <c r="E177"/>
-      <c r="F177"/>
-      <c r="G177"/>
-      <c r="H177"/>
-      <c r="I177"/>
-      <c r="J177"/>
-      <c r="K177"/>
-      <c r="L177"/>
-      <c r="M177"/>
-      <c r="N177"/>
-      <c r="O177"/>
-    </row>
-    <row r="178" spans="1:15">
-      <c r="A178" s="8">
-        <v>43277</v>
-      </c>
-      <c r="B178"/>
-      <c r="C178"/>
-      <c r="D178"/>
-      <c r="E178"/>
-      <c r="F178"/>
-      <c r="G178"/>
-      <c r="H178"/>
-      <c r="I178"/>
-      <c r="J178"/>
-      <c r="K178"/>
-      <c r="L178"/>
-      <c r="M178"/>
-      <c r="N178"/>
-      <c r="O178"/>
-    </row>
-    <row r="179" spans="1:15">
-      <c r="A179" s="8">
-        <v>43278</v>
-      </c>
-      <c r="B179"/>
-      <c r="C179"/>
-      <c r="D179"/>
-      <c r="E179"/>
-      <c r="F179"/>
-      <c r="G179"/>
-      <c r="H179"/>
-      <c r="I179"/>
-      <c r="J179"/>
-      <c r="K179"/>
-      <c r="L179"/>
-      <c r="M179"/>
-      <c r="N179"/>
-      <c r="O179"/>
-    </row>
-    <row r="180" spans="1:15">
-      <c r="A180" s="8">
-        <v>43279</v>
-      </c>
-      <c r="B180"/>
-      <c r="C180"/>
-      <c r="D180"/>
-      <c r="E180"/>
-      <c r="F180"/>
-      <c r="G180"/>
-      <c r="H180"/>
-      <c r="I180"/>
-      <c r="J180"/>
-      <c r="K180"/>
-      <c r="L180"/>
-      <c r="M180"/>
-      <c r="N180"/>
-      <c r="O180"/>
-    </row>
-    <row r="181" spans="1:15">
-      <c r="A181" s="8">
-        <v>43280</v>
-      </c>
-      <c r="B181"/>
-      <c r="C181"/>
-      <c r="D181"/>
-      <c r="E181"/>
-      <c r="F181"/>
-      <c r="G181"/>
-      <c r="H181"/>
-      <c r="I181"/>
-      <c r="J181"/>
-      <c r="K181"/>
-      <c r="L181"/>
-      <c r="M181"/>
-      <c r="N181"/>
-      <c r="O181"/>
-    </row>
-    <row r="182" spans="1:15">
-      <c r="A182" s="8">
-        <v>43281</v>
-      </c>
-      <c r="B182"/>
-      <c r="C182"/>
-      <c r="D182"/>
-      <c r="E182"/>
-      <c r="F182"/>
-      <c r="G182"/>
-      <c r="H182"/>
-      <c r="I182"/>
-      <c r="J182"/>
-      <c r="K182"/>
-      <c r="L182"/>
-      <c r="M182"/>
-      <c r="N182"/>
-      <c r="O182"/>
-    </row>
-    <row r="183" spans="1:15">
-      <c r="A183" s="8">
-        <v>43282</v>
-      </c>
-      <c r="B183" s="4"/>
-      <c r="C183"/>
-      <c r="D183"/>
-      <c r="E183"/>
-      <c r="F183"/>
-      <c r="G183"/>
-      <c r="H183"/>
-      <c r="I183"/>
-      <c r="J183"/>
-      <c r="K183"/>
-      <c r="L183"/>
-      <c r="M183"/>
-      <c r="N183"/>
-      <c r="O183"/>
-    </row>
-    <row r="184" spans="1:15">
-      <c r="A184" s="8">
-        <v>43283</v>
-      </c>
-      <c r="B184" s="4"/>
-      <c r="C184"/>
-      <c r="D184"/>
-      <c r="E184"/>
-      <c r="F184"/>
-      <c r="G184"/>
-      <c r="H184"/>
-      <c r="I184"/>
-      <c r="J184"/>
-      <c r="K184"/>
-      <c r="L184"/>
-      <c r="M184"/>
-      <c r="N184"/>
-      <c r="O184"/>
-    </row>
-    <row r="185" spans="1:15">
-      <c r="A185" s="8">
-        <v>43284</v>
-      </c>
-      <c r="B185" s="4"/>
-      <c r="C185"/>
-      <c r="D185"/>
-      <c r="E185"/>
-      <c r="F185"/>
-      <c r="G185"/>
-      <c r="H185"/>
-      <c r="I185"/>
-      <c r="J185"/>
-      <c r="K185"/>
-      <c r="L185"/>
-      <c r="M185"/>
-      <c r="N185"/>
-      <c r="O185"/>
-    </row>
-    <row r="186" spans="1:15">
-      <c r="A186" s="8">
-        <v>43285</v>
-      </c>
-      <c r="B186" s="4"/>
-      <c r="C186"/>
-      <c r="D186"/>
-      <c r="E186"/>
-      <c r="F186"/>
-      <c r="G186"/>
-      <c r="H186"/>
-      <c r="I186"/>
-      <c r="J186"/>
-      <c r="K186"/>
-      <c r="L186"/>
-      <c r="M186"/>
-      <c r="N186"/>
-      <c r="O186"/>
-    </row>
-    <row r="187" spans="1:15">
-      <c r="A187" s="8">
-        <v>43286</v>
-      </c>
-      <c r="B187" s="4"/>
-      <c r="C187"/>
-      <c r="D187"/>
-      <c r="E187"/>
-      <c r="F187"/>
-      <c r="G187"/>
-      <c r="H187"/>
-      <c r="I187"/>
-      <c r="J187"/>
-      <c r="K187"/>
-      <c r="L187"/>
-      <c r="M187"/>
-      <c r="N187"/>
-      <c r="O187"/>
-    </row>
-    <row r="188" spans="1:15">
-      <c r="A188" s="8">
-        <v>43287</v>
-      </c>
-      <c r="B188" s="4"/>
-      <c r="C188"/>
-      <c r="D188"/>
-      <c r="E188"/>
-      <c r="F188"/>
-      <c r="G188"/>
-      <c r="H188"/>
-      <c r="I188"/>
-      <c r="J188"/>
-      <c r="K188"/>
-      <c r="L188"/>
-      <c r="M188"/>
-      <c r="N188"/>
-    </row>
-    <row r="189" spans="1:15">
-      <c r="A189" s="8">
-        <v>43288</v>
-      </c>
-      <c r="B189" s="4"/>
-      <c r="C189"/>
-      <c r="D189"/>
-      <c r="E189"/>
-      <c r="F189"/>
-      <c r="G189"/>
-      <c r="H189"/>
-      <c r="I189"/>
-      <c r="J189"/>
-      <c r="K189"/>
-      <c r="L189"/>
-      <c r="M189"/>
-      <c r="N189"/>
-    </row>
-    <row r="190" spans="1:15">
-      <c r="A190" s="8">
-        <v>43289</v>
-      </c>
-      <c r="B190" s="4"/>
-      <c r="C190"/>
-      <c r="D190"/>
-      <c r="E190"/>
-      <c r="F190"/>
-      <c r="G190"/>
-      <c r="H190"/>
-      <c r="I190"/>
-      <c r="J190"/>
-      <c r="K190"/>
-      <c r="L190"/>
-      <c r="M190"/>
-      <c r="N190"/>
-    </row>
-    <row r="191" spans="1:15">
-      <c r="A191" s="8">
-        <v>43290</v>
-      </c>
-      <c r="B191" s="4"/>
-      <c r="C191"/>
-      <c r="D191"/>
-      <c r="E191"/>
-      <c r="F191"/>
-      <c r="G191"/>
-      <c r="H191"/>
-      <c r="I191"/>
-      <c r="J191"/>
-      <c r="K191"/>
-      <c r="L191"/>
-      <c r="M191"/>
-      <c r="N191"/>
-    </row>
-    <row r="192" spans="1:15">
-      <c r="A192" s="8">
-        <v>43291</v>
-      </c>
-      <c r="B192" s="4"/>
-      <c r="C192"/>
-      <c r="D192"/>
-      <c r="E192"/>
-      <c r="F192"/>
-      <c r="G192"/>
-      <c r="H192"/>
-      <c r="I192"/>
-      <c r="J192"/>
-      <c r="K192"/>
-      <c r="L192"/>
-      <c r="M192"/>
-      <c r="N192"/>
-    </row>
-    <row r="193" spans="1:14">
-      <c r="A193" s="8">
-        <v>43292</v>
-      </c>
-      <c r="B193" s="4"/>
-      <c r="C193"/>
-      <c r="D193"/>
-      <c r="E193"/>
-      <c r="F193"/>
-      <c r="G193"/>
-      <c r="H193"/>
-      <c r="I193"/>
-      <c r="J193"/>
-      <c r="K193"/>
-      <c r="L193"/>
-      <c r="M193"/>
-      <c r="N193"/>
-    </row>
-    <row r="194" spans="1:14">
-      <c r="A194" s="8">
-        <v>43293</v>
-      </c>
-      <c r="B194" s="4"/>
-      <c r="C194"/>
-      <c r="D194"/>
-      <c r="E194"/>
-      <c r="F194"/>
-      <c r="G194"/>
-      <c r="H194"/>
-      <c r="I194"/>
-      <c r="J194"/>
-      <c r="K194"/>
-      <c r="L194"/>
-      <c r="M194"/>
-      <c r="N194"/>
-    </row>
-    <row r="195" spans="1:14">
-      <c r="A195" s="8">
-        <v>43294</v>
-      </c>
-      <c r="B195" s="4"/>
-      <c r="C195"/>
-      <c r="D195"/>
-      <c r="E195"/>
-      <c r="F195"/>
-      <c r="G195"/>
-      <c r="H195"/>
-      <c r="I195"/>
-      <c r="J195"/>
-      <c r="K195"/>
-      <c r="L195"/>
-      <c r="M195"/>
-      <c r="N195"/>
-    </row>
-    <row r="196" spans="1:14">
-      <c r="A196" s="8">
-        <v>43295</v>
-      </c>
-      <c r="B196" s="4"/>
-      <c r="C196"/>
-      <c r="D196"/>
-      <c r="E196"/>
-      <c r="F196"/>
-      <c r="G196"/>
-      <c r="H196"/>
-      <c r="I196"/>
-      <c r="J196"/>
-      <c r="K196"/>
-      <c r="L196"/>
-      <c r="M196"/>
-      <c r="N196"/>
-    </row>
-    <row r="197" spans="1:14">
-      <c r="A197" s="8">
-        <v>43296</v>
-      </c>
-      <c r="B197" s="4"/>
-      <c r="C197"/>
-      <c r="D197"/>
-      <c r="E197"/>
-      <c r="F197"/>
-      <c r="G197"/>
-      <c r="H197"/>
-      <c r="I197"/>
-      <c r="J197"/>
-      <c r="K197"/>
-      <c r="L197"/>
-      <c r="M197"/>
-      <c r="N197"/>
-    </row>
-    <row r="198" spans="1:14">
-      <c r="A198" s="8">
-        <v>43297</v>
-      </c>
-      <c r="B198" s="4"/>
-      <c r="C198"/>
-      <c r="D198"/>
-      <c r="E198"/>
-      <c r="F198"/>
-      <c r="G198"/>
-      <c r="H198"/>
-      <c r="I198"/>
-      <c r="J198"/>
-      <c r="K198"/>
-      <c r="L198"/>
-      <c r="M198"/>
-      <c r="N198"/>
-    </row>
-    <row r="199" spans="1:14">
-      <c r="A199" s="8">
-        <v>43298</v>
-      </c>
-      <c r="B199" s="4"/>
-      <c r="C199"/>
-      <c r="D199"/>
-      <c r="E199"/>
-      <c r="F199"/>
-      <c r="G199"/>
-      <c r="H199"/>
-      <c r="I199"/>
-      <c r="J199"/>
-      <c r="K199"/>
-      <c r="L199"/>
-      <c r="M199"/>
-      <c r="N199"/>
-    </row>
-    <row r="200" spans="1:14">
-      <c r="A200" s="8">
-        <v>43299</v>
-      </c>
-      <c r="B200" s="4"/>
-      <c r="C200"/>
-      <c r="D200"/>
-      <c r="E200"/>
-      <c r="F200"/>
-      <c r="G200"/>
-      <c r="H200"/>
-      <c r="I200"/>
-      <c r="J200"/>
-      <c r="K200"/>
-      <c r="L200"/>
-      <c r="M200"/>
-      <c r="N200"/>
-    </row>
-    <row r="201" spans="1:14">
-      <c r="A201" s="8">
-        <v>43300</v>
-      </c>
-      <c r="B201" s="4"/>
-      <c r="C201"/>
-      <c r="D201"/>
-      <c r="E201"/>
-      <c r="F201"/>
-      <c r="G201"/>
-      <c r="H201"/>
-      <c r="I201"/>
-      <c r="J201"/>
-      <c r="K201"/>
-      <c r="L201"/>
-      <c r="M201"/>
-      <c r="N201"/>
-    </row>
-    <row r="202" spans="1:14">
-      <c r="A202" s="8">
-        <v>43301</v>
-      </c>
-      <c r="B202" s="4"/>
-      <c r="C202"/>
-      <c r="D202"/>
-      <c r="E202"/>
-      <c r="F202"/>
-      <c r="G202"/>
-      <c r="H202"/>
-      <c r="I202"/>
-      <c r="J202"/>
-      <c r="K202"/>
-      <c r="L202"/>
-      <c r="M202"/>
-      <c r="N202"/>
-    </row>
-    <row r="203" spans="1:14">
-      <c r="A203" s="8">
-        <v>43302</v>
-      </c>
-      <c r="B203" s="4"/>
-      <c r="C203"/>
-      <c r="D203"/>
-      <c r="E203"/>
-      <c r="F203"/>
-      <c r="G203"/>
-      <c r="H203"/>
-      <c r="I203"/>
-      <c r="J203"/>
-      <c r="K203"/>
-      <c r="L203"/>
-      <c r="M203"/>
-      <c r="N203"/>
-    </row>
-    <row r="204" spans="1:14">
-      <c r="A204" s="8">
-        <v>43303</v>
-      </c>
-      <c r="B204" s="4"/>
-      <c r="C204"/>
-      <c r="D204"/>
-      <c r="E204"/>
-      <c r="F204"/>
-      <c r="G204"/>
-      <c r="H204"/>
-      <c r="I204"/>
-      <c r="J204"/>
-      <c r="K204"/>
-      <c r="L204"/>
-      <c r="M204"/>
-      <c r="N204"/>
-    </row>
-    <row r="205" spans="1:14">
-      <c r="A205" s="8">
-        <v>43304</v>
-      </c>
-      <c r="B205" s="4"/>
-      <c r="C205"/>
-      <c r="D205"/>
-      <c r="E205"/>
-      <c r="F205"/>
-      <c r="G205"/>
-      <c r="H205"/>
-      <c r="I205"/>
-      <c r="J205"/>
-      <c r="K205"/>
-      <c r="L205"/>
-      <c r="M205"/>
-      <c r="N205"/>
-    </row>
-    <row r="206" spans="1:14">
-      <c r="A206" s="8">
-        <v>43305</v>
-      </c>
-      <c r="B206" s="4"/>
-      <c r="C206"/>
-      <c r="D206"/>
-      <c r="E206"/>
-      <c r="F206"/>
-      <c r="G206"/>
-      <c r="H206"/>
-      <c r="I206"/>
-      <c r="J206"/>
-      <c r="K206"/>
-      <c r="L206"/>
-      <c r="M206"/>
-      <c r="N206"/>
-    </row>
-    <row r="207" spans="1:14">
-      <c r="A207" s="8">
-        <v>43306</v>
-      </c>
-      <c r="B207" s="4"/>
-      <c r="C207"/>
-      <c r="D207"/>
-      <c r="E207"/>
-      <c r="F207"/>
-      <c r="G207"/>
-      <c r="H207"/>
-      <c r="I207"/>
-      <c r="J207"/>
-      <c r="K207"/>
-      <c r="L207"/>
-      <c r="M207"/>
-      <c r="N207"/>
-    </row>
-    <row r="208" spans="1:14">
-      <c r="A208" s="8">
-        <v>43307</v>
-      </c>
-      <c r="B208" s="4"/>
-      <c r="C208"/>
-      <c r="D208"/>
-      <c r="E208"/>
-      <c r="F208"/>
-      <c r="G208"/>
-      <c r="H208"/>
-      <c r="I208"/>
-      <c r="J208"/>
-      <c r="K208"/>
-      <c r="L208"/>
-      <c r="M208"/>
-      <c r="N208"/>
-    </row>
-    <row r="209" spans="1:14">
-      <c r="A209" s="8">
-        <v>43308</v>
-      </c>
-      <c r="B209" s="4"/>
-      <c r="C209"/>
-      <c r="D209"/>
-      <c r="E209"/>
-      <c r="F209"/>
-      <c r="G209"/>
-      <c r="H209"/>
-      <c r="I209"/>
-      <c r="J209"/>
-      <c r="K209"/>
-      <c r="L209"/>
-      <c r="M209"/>
-      <c r="N209"/>
-    </row>
-    <row r="210" spans="1:14">
-      <c r="A210" s="8">
-        <v>43309</v>
-      </c>
-      <c r="B210" s="4"/>
-      <c r="C210"/>
-      <c r="D210"/>
-      <c r="E210"/>
-      <c r="F210"/>
-      <c r="G210"/>
-      <c r="H210"/>
-      <c r="I210"/>
-      <c r="J210"/>
-      <c r="K210"/>
-      <c r="L210"/>
-      <c r="M210"/>
-      <c r="N210"/>
-    </row>
-    <row r="211" spans="1:14">
-      <c r="A211" s="8">
-        <v>43310</v>
-      </c>
-      <c r="B211" s="4"/>
-      <c r="C211"/>
-      <c r="D211"/>
-      <c r="E211"/>
-      <c r="F211"/>
-      <c r="G211"/>
-      <c r="H211"/>
-      <c r="I211"/>
-      <c r="J211"/>
-      <c r="K211"/>
-      <c r="L211"/>
-      <c r="M211"/>
-      <c r="N211"/>
-    </row>
-    <row r="212" spans="1:14">
-      <c r="A212" s="8">
-        <v>43311</v>
-      </c>
-      <c r="B212" s="4"/>
-      <c r="C212"/>
-      <c r="D212"/>
-      <c r="E212"/>
-      <c r="F212"/>
-      <c r="G212"/>
-      <c r="H212"/>
-      <c r="I212"/>
-      <c r="J212"/>
-      <c r="K212"/>
-      <c r="L212"/>
-      <c r="M212"/>
-      <c r="N212"/>
-    </row>
-    <row r="213" spans="1:14">
-      <c r="A213" s="8">
-        <v>43312</v>
-      </c>
-      <c r="B213" s="4"/>
-      <c r="C213"/>
-      <c r="D213"/>
-      <c r="E213"/>
-      <c r="F213"/>
-      <c r="G213"/>
-      <c r="H213"/>
-      <c r="I213"/>
-      <c r="J213"/>
-      <c r="K213"/>
-      <c r="L213"/>
-      <c r="M213"/>
-      <c r="N213"/>
-    </row>
-    <row r="214" spans="1:14">
-      <c r="A214" s="8">
-        <v>43313</v>
-      </c>
-      <c r="B214" s="4"/>
-      <c r="C214"/>
-      <c r="D214"/>
-      <c r="E214"/>
-      <c r="F214"/>
-      <c r="G214"/>
-      <c r="H214"/>
-      <c r="I214"/>
-      <c r="J214"/>
-      <c r="K214"/>
-      <c r="L214"/>
-      <c r="M214"/>
-      <c r="N214"/>
-    </row>
-    <row r="215" spans="1:14">
-      <c r="A215" s="8">
-        <v>43314</v>
-      </c>
-      <c r="B215" s="4"/>
-      <c r="C215"/>
-      <c r="D215"/>
-      <c r="E215"/>
-      <c r="F215"/>
-      <c r="G215"/>
-      <c r="H215"/>
-      <c r="I215"/>
-      <c r="J215"/>
-      <c r="K215"/>
-      <c r="L215"/>
-      <c r="M215"/>
-      <c r="N215"/>
-    </row>
-    <row r="216" spans="1:14">
-      <c r="A216" s="8">
-        <v>43315</v>
-      </c>
-      <c r="B216" s="4"/>
-      <c r="C216"/>
-      <c r="D216"/>
-      <c r="E216"/>
-      <c r="F216"/>
-      <c r="G216"/>
-      <c r="H216"/>
-      <c r="I216"/>
-      <c r="J216"/>
-      <c r="K216"/>
-      <c r="L216"/>
-      <c r="M216"/>
-      <c r="N216"/>
-    </row>
-    <row r="217" spans="1:14">
-      <c r="A217" s="8">
-        <v>43316</v>
-      </c>
-      <c r="B217" s="4"/>
-      <c r="C217"/>
-      <c r="D217"/>
-      <c r="E217"/>
-      <c r="F217"/>
-      <c r="G217"/>
-      <c r="H217"/>
-      <c r="I217"/>
-      <c r="J217"/>
-      <c r="K217"/>
-      <c r="L217"/>
-      <c r="M217"/>
-      <c r="N217"/>
-    </row>
-    <row r="218" spans="1:14">
-      <c r="A218" s="8">
-        <v>43317</v>
-      </c>
-      <c r="B218" s="4"/>
-      <c r="C218"/>
-      <c r="D218"/>
-      <c r="E218"/>
-      <c r="F218"/>
-      <c r="G218"/>
-      <c r="H218"/>
-      <c r="I218"/>
-      <c r="J218"/>
-      <c r="K218"/>
-      <c r="L218"/>
-      <c r="M218"/>
-      <c r="N218"/>
-    </row>
-    <row r="219" spans="1:14">
-      <c r="A219" s="8">
-        <v>43318</v>
-      </c>
-      <c r="B219" s="4"/>
-      <c r="C219"/>
-      <c r="D219"/>
-      <c r="E219"/>
-      <c r="F219"/>
-      <c r="G219"/>
-      <c r="H219"/>
-      <c r="I219"/>
-      <c r="J219"/>
-      <c r="K219"/>
-      <c r="L219"/>
-      <c r="M219"/>
-      <c r="N219"/>
-    </row>
-    <row r="220" spans="1:14">
-      <c r="A220" s="8">
-        <v>43319</v>
-      </c>
-      <c r="B220" s="4"/>
-      <c r="C220"/>
-      <c r="D220"/>
-      <c r="E220"/>
-      <c r="F220"/>
-      <c r="G220"/>
-      <c r="H220"/>
-      <c r="I220"/>
-      <c r="J220"/>
-      <c r="K220"/>
-      <c r="L220"/>
-      <c r="M220"/>
-      <c r="N220"/>
-    </row>
-    <row r="221" spans="1:14">
-      <c r="A221" s="8">
-        <v>43320</v>
-      </c>
-      <c r="B221" s="4"/>
-      <c r="C221"/>
-      <c r="D221"/>
-      <c r="E221"/>
-      <c r="F221"/>
-      <c r="G221"/>
-      <c r="H221"/>
-      <c r="I221"/>
-      <c r="J221"/>
-      <c r="K221"/>
-      <c r="L221"/>
-      <c r="M221"/>
-      <c r="N221"/>
-    </row>
-    <row r="222" spans="1:14">
-      <c r="A222" s="8">
-        <v>43321</v>
-      </c>
-      <c r="B222" s="4"/>
-      <c r="C222"/>
-      <c r="D222"/>
-      <c r="E222"/>
-      <c r="F222"/>
-      <c r="G222"/>
-      <c r="H222"/>
-      <c r="I222"/>
-      <c r="J222"/>
-      <c r="K222"/>
-      <c r="L222"/>
-      <c r="M222"/>
-      <c r="N222"/>
-    </row>
-    <row r="223" spans="1:14">
-      <c r="A223" s="8">
-        <v>43322</v>
-      </c>
-      <c r="B223" s="4"/>
-      <c r="C223"/>
-      <c r="D223"/>
-      <c r="E223"/>
-      <c r="F223"/>
-      <c r="G223"/>
-      <c r="H223"/>
-      <c r="I223"/>
-      <c r="J223"/>
-      <c r="K223"/>
-      <c r="L223"/>
-      <c r="M223"/>
-      <c r="N223"/>
-    </row>
-    <row r="224" spans="1:14">
-      <c r="A224" s="8">
-        <v>43323</v>
-      </c>
-      <c r="B224" s="4"/>
-      <c r="C224"/>
-      <c r="D224"/>
-      <c r="E224"/>
-      <c r="F224"/>
-      <c r="G224"/>
-      <c r="H224"/>
-      <c r="I224"/>
-      <c r="J224"/>
-      <c r="K224"/>
-      <c r="L224"/>
-      <c r="M224"/>
-      <c r="N224"/>
-    </row>
-    <row r="225" spans="1:14">
-      <c r="A225" s="8">
-        <v>43324</v>
-      </c>
-      <c r="B225" s="4"/>
-      <c r="C225"/>
-      <c r="D225"/>
-      <c r="E225"/>
-      <c r="F225"/>
-      <c r="G225"/>
-      <c r="H225"/>
-      <c r="I225"/>
-      <c r="J225"/>
-      <c r="K225"/>
-      <c r="L225"/>
-      <c r="M225"/>
-      <c r="N225"/>
-    </row>
-    <row r="226" spans="1:14">
-      <c r="A226" s="8">
-        <v>43325</v>
-      </c>
-      <c r="B226" s="4"/>
-      <c r="C226"/>
-      <c r="D226"/>
-      <c r="E226"/>
-      <c r="F226"/>
-      <c r="G226"/>
-      <c r="H226"/>
-      <c r="I226"/>
-      <c r="J226"/>
-      <c r="K226"/>
-      <c r="L226"/>
-      <c r="M226"/>
-      <c r="N226"/>
-    </row>
-    <row r="227" spans="1:14">
-      <c r="A227" s="8">
-        <v>43326</v>
-      </c>
-      <c r="B227" s="4"/>
-      <c r="C227"/>
-      <c r="D227"/>
-      <c r="E227"/>
-      <c r="F227"/>
-      <c r="G227"/>
-      <c r="H227"/>
-      <c r="I227"/>
-      <c r="J227"/>
-      <c r="K227"/>
-      <c r="L227"/>
-      <c r="M227"/>
-      <c r="N227"/>
-    </row>
-    <row r="228" spans="1:14">
-      <c r="A228" s="8">
-        <v>43327</v>
-      </c>
-      <c r="B228" s="4"/>
-      <c r="C228"/>
-      <c r="D228"/>
-      <c r="E228"/>
-      <c r="F228"/>
-      <c r="G228"/>
-      <c r="H228"/>
-      <c r="I228"/>
-      <c r="J228"/>
-      <c r="K228"/>
-      <c r="L228"/>
-      <c r="M228"/>
-      <c r="N228"/>
-    </row>
-    <row r="229" spans="1:14">
-      <c r="A229" s="8">
-        <v>43328</v>
-      </c>
-      <c r="B229" s="4"/>
-      <c r="C229"/>
-      <c r="D229"/>
-      <c r="E229"/>
-      <c r="F229"/>
-      <c r="G229"/>
-      <c r="H229"/>
-      <c r="I229"/>
-      <c r="J229"/>
-      <c r="K229"/>
-      <c r="L229"/>
-      <c r="M229"/>
-      <c r="N229"/>
-    </row>
-    <row r="230" spans="1:14">
-      <c r="A230" s="8">
-        <v>43329</v>
-      </c>
-      <c r="B230" s="4"/>
-      <c r="C230"/>
-      <c r="D230"/>
-      <c r="E230"/>
-      <c r="F230"/>
-      <c r="G230"/>
-      <c r="H230"/>
-      <c r="I230"/>
-      <c r="J230"/>
-      <c r="K230"/>
-      <c r="L230"/>
-      <c r="M230"/>
-      <c r="N230"/>
-    </row>
-    <row r="231" spans="1:14">
-      <c r="A231" s="8">
-        <v>43330</v>
-      </c>
-      <c r="B231" s="4"/>
-      <c r="C231"/>
-      <c r="D231"/>
-      <c r="E231"/>
-      <c r="F231"/>
-      <c r="G231"/>
-      <c r="H231"/>
-      <c r="I231"/>
-      <c r="J231"/>
-      <c r="K231"/>
-      <c r="L231"/>
-      <c r="M231"/>
-      <c r="N231"/>
-    </row>
-    <row r="232" spans="1:14">
-      <c r="A232" s="8">
-        <v>43331</v>
-      </c>
-      <c r="B232" s="4"/>
-      <c r="C232"/>
-      <c r="D232"/>
-      <c r="E232"/>
-      <c r="F232"/>
-      <c r="G232"/>
-      <c r="H232"/>
-      <c r="I232"/>
-      <c r="J232"/>
-      <c r="K232"/>
-      <c r="L232"/>
-      <c r="M232"/>
-      <c r="N232"/>
-    </row>
-    <row r="233" spans="1:14">
-      <c r="A233" s="8">
-        <v>43332</v>
-      </c>
-      <c r="B233" s="4"/>
-      <c r="C233"/>
-      <c r="D233"/>
-      <c r="E233"/>
-      <c r="F233"/>
-      <c r="G233"/>
-      <c r="H233"/>
-      <c r="I233"/>
-      <c r="J233"/>
-      <c r="K233"/>
-      <c r="L233"/>
-      <c r="M233"/>
-      <c r="N233"/>
-    </row>
-    <row r="234" spans="1:14">
-      <c r="A234" s="8">
-        <v>43333</v>
-      </c>
-      <c r="B234" s="4"/>
-      <c r="C234"/>
-      <c r="D234"/>
-      <c r="E234"/>
-      <c r="F234"/>
-      <c r="G234"/>
-      <c r="H234"/>
-      <c r="I234"/>
-      <c r="J234"/>
-      <c r="K234"/>
-      <c r="L234"/>
-      <c r="M234"/>
-      <c r="N234"/>
-    </row>
-    <row r="235" spans="1:14">
-      <c r="A235" s="8">
-        <v>43334</v>
-      </c>
-      <c r="B235" s="4"/>
-      <c r="C235"/>
-      <c r="D235"/>
-      <c r="E235"/>
-      <c r="F235"/>
-      <c r="G235"/>
-      <c r="H235"/>
-      <c r="I235"/>
-      <c r="J235"/>
-      <c r="K235"/>
-      <c r="L235"/>
-      <c r="M235"/>
-      <c r="N235"/>
-    </row>
-    <row r="236" spans="1:14">
-      <c r="A236" s="8">
-        <v>43335</v>
-      </c>
-      <c r="B236" s="4"/>
-      <c r="C236"/>
-      <c r="D236"/>
-      <c r="E236"/>
-      <c r="F236"/>
-      <c r="G236"/>
-      <c r="H236"/>
-      <c r="I236"/>
-      <c r="J236"/>
-      <c r="K236"/>
-      <c r="L236"/>
-      <c r="M236"/>
-      <c r="N236"/>
-    </row>
-    <row r="237" spans="1:14">
-      <c r="A237" s="8">
-        <v>43336</v>
-      </c>
-      <c r="B237" s="4"/>
-      <c r="C237"/>
-      <c r="D237"/>
-      <c r="E237"/>
-      <c r="F237"/>
-      <c r="G237"/>
-      <c r="H237"/>
-      <c r="I237"/>
-      <c r="J237"/>
-      <c r="K237"/>
-      <c r="L237"/>
-      <c r="M237"/>
-      <c r="N237"/>
-    </row>
-    <row r="238" spans="1:14">
-      <c r="A238" s="8">
-        <v>43337</v>
-      </c>
-      <c r="B238" s="4"/>
-      <c r="C238"/>
-      <c r="D238"/>
-      <c r="E238"/>
-      <c r="F238"/>
-      <c r="G238"/>
-      <c r="H238"/>
-      <c r="I238"/>
-      <c r="J238"/>
-      <c r="K238"/>
-      <c r="L238"/>
-      <c r="M238"/>
-      <c r="N238"/>
-    </row>
-    <row r="239" spans="1:14">
-      <c r="A239" s="8">
-        <v>43338</v>
-      </c>
-      <c r="B239" s="4"/>
-      <c r="C239"/>
-      <c r="D239"/>
-      <c r="E239"/>
-      <c r="F239"/>
-      <c r="G239"/>
-      <c r="H239"/>
-      <c r="I239"/>
-      <c r="J239"/>
-      <c r="K239"/>
-      <c r="L239"/>
-      <c r="M239"/>
-      <c r="N239"/>
-    </row>
-    <row r="240" spans="1:14">
-      <c r="A240" s="8">
-        <v>43339</v>
-      </c>
-      <c r="B240" s="4"/>
-      <c r="C240"/>
-      <c r="D240"/>
-      <c r="E240"/>
-      <c r="F240"/>
-      <c r="G240"/>
-      <c r="H240"/>
-      <c r="I240"/>
-      <c r="J240"/>
-      <c r="K240"/>
-      <c r="L240"/>
-      <c r="M240"/>
-      <c r="N240"/>
-    </row>
-    <row r="241" spans="1:14">
-      <c r="A241" s="8">
-        <v>43340</v>
-      </c>
-      <c r="B241" s="4"/>
-      <c r="C241"/>
-      <c r="D241"/>
-      <c r="E241"/>
-      <c r="F241"/>
-      <c r="G241"/>
-      <c r="H241"/>
-      <c r="I241"/>
-      <c r="J241"/>
-      <c r="K241"/>
-      <c r="L241"/>
-      <c r="M241"/>
-      <c r="N241"/>
-    </row>
-    <row r="242" spans="1:14">
-      <c r="A242" s="8">
-        <v>43341</v>
-      </c>
-      <c r="B242" s="4"/>
-      <c r="C242"/>
-      <c r="D242"/>
-      <c r="E242"/>
-      <c r="F242"/>
-      <c r="G242"/>
-      <c r="H242"/>
-      <c r="I242"/>
-      <c r="J242"/>
-      <c r="K242"/>
-      <c r="L242"/>
-      <c r="M242"/>
-      <c r="N242"/>
-    </row>
-    <row r="243" spans="1:14">
-      <c r="A243" s="8">
-        <v>43342</v>
-      </c>
-      <c r="B243" s="4"/>
-      <c r="C243"/>
-      <c r="D243"/>
-      <c r="E243"/>
-      <c r="F243"/>
-      <c r="G243"/>
-      <c r="H243"/>
-      <c r="I243"/>
-      <c r="J243"/>
-      <c r="K243"/>
-      <c r="L243"/>
-      <c r="M243"/>
-      <c r="N243"/>
-    </row>
-    <row r="244" spans="1:14">
-      <c r="A244" s="8">
-        <v>43343</v>
-      </c>
-      <c r="B244" s="4"/>
-      <c r="C244"/>
-      <c r="D244"/>
-      <c r="E244"/>
-      <c r="F244"/>
-      <c r="G244"/>
-      <c r="H244"/>
-      <c r="I244"/>
-      <c r="J244"/>
-      <c r="K244"/>
-      <c r="L244"/>
-      <c r="M244"/>
-      <c r="N244"/>
-    </row>
-    <row r="245" spans="1:14">
-      <c r="A245" s="8">
-        <v>43344</v>
-      </c>
-      <c r="B245" s="4"/>
-      <c r="C245"/>
-      <c r="D245"/>
-      <c r="E245"/>
-      <c r="F245"/>
-      <c r="G245"/>
-      <c r="H245"/>
-      <c r="I245"/>
-      <c r="J245"/>
-      <c r="K245"/>
-      <c r="L245"/>
-      <c r="M245"/>
-      <c r="N245"/>
-    </row>
-    <row r="246" spans="1:14">
-      <c r="A246" s="8">
-        <v>43345</v>
-      </c>
-      <c r="B246" s="4"/>
-      <c r="C246"/>
-      <c r="D246"/>
-      <c r="E246"/>
-      <c r="F246"/>
-      <c r="G246"/>
-      <c r="H246"/>
-      <c r="I246"/>
-      <c r="J246"/>
-      <c r="K246"/>
-      <c r="L246"/>
-      <c r="M246"/>
-      <c r="N246"/>
-    </row>
-    <row r="247" spans="1:14">
-      <c r="A247" s="8">
-        <v>43346</v>
-      </c>
-      <c r="B247" s="4"/>
-      <c r="C247"/>
-      <c r="D247"/>
-      <c r="E247"/>
-      <c r="F247"/>
-      <c r="G247"/>
-      <c r="H247"/>
-      <c r="I247"/>
-      <c r="J247"/>
-      <c r="K247"/>
-      <c r="L247"/>
-      <c r="M247"/>
-      <c r="N247"/>
-    </row>
-    <row r="248" spans="1:14">
-      <c r="A248" s="8">
-        <v>43347</v>
-      </c>
-      <c r="B248" s="4"/>
-      <c r="C248"/>
-      <c r="D248"/>
-      <c r="E248"/>
-      <c r="F248"/>
-      <c r="G248"/>
-      <c r="H248"/>
-      <c r="I248"/>
-      <c r="J248"/>
-      <c r="K248"/>
-      <c r="L248"/>
-      <c r="M248"/>
-      <c r="N248"/>
-    </row>
-    <row r="249" spans="1:14">
-      <c r="A249" s="8">
-        <v>43348</v>
-      </c>
-      <c r="B249" s="4"/>
-      <c r="C249"/>
-      <c r="D249"/>
-      <c r="E249"/>
-      <c r="F249"/>
-      <c r="G249"/>
-      <c r="H249"/>
-      <c r="I249"/>
-      <c r="J249"/>
-      <c r="K249"/>
-      <c r="L249"/>
-      <c r="M249"/>
-      <c r="N249"/>
-    </row>
-    <row r="250" spans="1:14">
-      <c r="A250" s="8">
-        <v>43349</v>
-      </c>
-      <c r="B250" s="4"/>
-      <c r="C250"/>
-      <c r="D250"/>
-      <c r="E250"/>
-      <c r="F250"/>
-      <c r="G250"/>
-      <c r="H250"/>
-      <c r="I250"/>
-      <c r="J250"/>
-      <c r="K250"/>
-      <c r="L250"/>
-      <c r="M250"/>
-      <c r="N250"/>
-    </row>
-    <row r="251" spans="1:14">
-      <c r="A251" s="8">
-        <v>43350</v>
-      </c>
-      <c r="B251" s="4"/>
-      <c r="C251"/>
-      <c r="D251"/>
-      <c r="E251"/>
-      <c r="F251"/>
-      <c r="G251"/>
-      <c r="H251"/>
-      <c r="I251"/>
-      <c r="J251"/>
-      <c r="K251"/>
-      <c r="L251"/>
-      <c r="M251"/>
-      <c r="N251"/>
-    </row>
-    <row r="252" spans="1:14">
-      <c r="A252" s="8">
-        <v>43351</v>
-      </c>
-      <c r="B252" s="4"/>
-      <c r="C252"/>
-      <c r="D252"/>
-      <c r="E252"/>
-      <c r="F252"/>
-      <c r="G252"/>
-      <c r="H252"/>
-      <c r="I252"/>
-      <c r="J252"/>
-      <c r="K252"/>
-      <c r="L252"/>
-      <c r="M252"/>
-      <c r="N252"/>
-    </row>
-    <row r="253" spans="1:14">
-      <c r="A253" s="8">
-        <v>43352</v>
-      </c>
-      <c r="B253" s="4"/>
-      <c r="C253"/>
-      <c r="D253"/>
-      <c r="E253"/>
-      <c r="F253"/>
-      <c r="G253"/>
-      <c r="H253"/>
-      <c r="I253"/>
-      <c r="J253"/>
-      <c r="K253"/>
-      <c r="L253"/>
-      <c r="M253"/>
-      <c r="N253"/>
-    </row>
-    <row r="254" spans="1:14">
-      <c r="A254" s="8">
-        <v>43353</v>
-      </c>
-      <c r="B254" s="4"/>
-      <c r="C254"/>
-      <c r="D254"/>
-      <c r="E254"/>
-      <c r="F254"/>
-      <c r="G254"/>
-      <c r="H254"/>
-      <c r="I254"/>
-      <c r="J254"/>
-      <c r="K254"/>
-      <c r="L254"/>
-      <c r="M254"/>
-      <c r="N254"/>
-    </row>
-    <row r="255" spans="1:14">
-      <c r="A255" s="8">
-        <v>43354</v>
-      </c>
-      <c r="B255" s="4"/>
-      <c r="C255"/>
-      <c r="D255"/>
-      <c r="E255"/>
-      <c r="F255"/>
-      <c r="G255"/>
-      <c r="H255"/>
-      <c r="I255"/>
-      <c r="J255"/>
-      <c r="K255"/>
-      <c r="L255"/>
-      <c r="M255"/>
-      <c r="N255"/>
-    </row>
-    <row r="256" spans="1:14">
-      <c r="A256" s="8">
-        <v>43355</v>
-      </c>
-      <c r="B256" s="4"/>
-      <c r="C256"/>
-      <c r="D256"/>
-      <c r="E256"/>
-      <c r="F256"/>
-      <c r="G256"/>
-      <c r="H256"/>
-      <c r="I256"/>
-      <c r="J256"/>
-      <c r="K256"/>
-      <c r="L256"/>
-      <c r="M256"/>
-      <c r="N256"/>
-    </row>
-    <row r="257" spans="1:14">
-      <c r="A257" s="8">
-        <v>43356</v>
-      </c>
-      <c r="B257" s="4"/>
-      <c r="C257"/>
-      <c r="D257"/>
-      <c r="E257"/>
-      <c r="F257"/>
-      <c r="G257"/>
-      <c r="H257"/>
-      <c r="I257"/>
-      <c r="J257"/>
-      <c r="K257"/>
-      <c r="L257"/>
-      <c r="M257"/>
-      <c r="N257"/>
-    </row>
-    <row r="258" spans="1:14">
-      <c r="A258" s="8">
-        <v>43357</v>
-      </c>
-      <c r="B258" s="4"/>
-      <c r="C258"/>
-      <c r="D258"/>
-      <c r="E258"/>
-      <c r="F258"/>
-      <c r="G258"/>
-      <c r="H258"/>
-      <c r="I258"/>
-      <c r="J258"/>
-      <c r="K258"/>
-      <c r="L258"/>
-      <c r="M258"/>
-      <c r="N258"/>
-    </row>
-    <row r="259" spans="1:14">
-      <c r="A259" s="8">
-        <v>43358</v>
-      </c>
-      <c r="B259" s="4"/>
-      <c r="C259"/>
-      <c r="D259"/>
-      <c r="E259"/>
-      <c r="F259"/>
-      <c r="G259"/>
-      <c r="H259"/>
-      <c r="I259"/>
-      <c r="J259"/>
-      <c r="K259"/>
-      <c r="L259"/>
-      <c r="M259"/>
-      <c r="N259"/>
-    </row>
-    <row r="260" spans="1:14">
-      <c r="A260" s="8">
-        <v>43359</v>
-      </c>
-      <c r="B260" s="4"/>
-      <c r="C260"/>
-      <c r="D260"/>
-      <c r="E260"/>
-      <c r="F260"/>
-      <c r="G260"/>
-      <c r="H260"/>
-      <c r="I260"/>
-      <c r="J260"/>
-      <c r="K260"/>
-      <c r="L260"/>
-      <c r="M260"/>
-      <c r="N260"/>
-    </row>
-    <row r="261" spans="1:14">
-      <c r="A261" s="8">
-        <v>43360</v>
-      </c>
-      <c r="B261" s="4"/>
-      <c r="C261"/>
-      <c r="D261"/>
-      <c r="E261"/>
-      <c r="F261"/>
-      <c r="G261"/>
-      <c r="H261"/>
-      <c r="I261"/>
-      <c r="J261"/>
-      <c r="K261"/>
-      <c r="L261"/>
-      <c r="M261"/>
-      <c r="N261"/>
-    </row>
-    <row r="262" spans="1:14">
-      <c r="A262" s="8">
-        <v>43361</v>
-      </c>
-      <c r="B262" s="4"/>
-      <c r="C262"/>
-      <c r="D262"/>
-      <c r="E262"/>
-      <c r="F262"/>
-      <c r="G262"/>
-      <c r="H262"/>
-      <c r="I262"/>
-      <c r="J262"/>
-      <c r="K262"/>
-      <c r="L262"/>
-      <c r="M262"/>
-      <c r="N262"/>
-    </row>
-    <row r="263" spans="1:14">
-      <c r="A263" s="8">
-        <v>43362</v>
-      </c>
-      <c r="B263" s="4"/>
-      <c r="C263"/>
-      <c r="D263"/>
-      <c r="E263"/>
-      <c r="F263"/>
-      <c r="G263"/>
-      <c r="H263"/>
-      <c r="I263"/>
-      <c r="J263"/>
-      <c r="K263"/>
-      <c r="L263"/>
-      <c r="M263"/>
-      <c r="N263"/>
-    </row>
-    <row r="264" spans="1:14">
-      <c r="A264" s="8">
-        <v>43363</v>
-      </c>
-      <c r="B264" s="4"/>
-      <c r="C264"/>
-      <c r="D264"/>
-      <c r="E264"/>
-      <c r="F264"/>
-      <c r="G264"/>
-      <c r="H264"/>
-      <c r="I264"/>
-      <c r="J264"/>
-      <c r="K264"/>
-      <c r="L264"/>
-      <c r="M264"/>
-      <c r="N264"/>
-    </row>
-    <row r="265" spans="1:14">
-      <c r="A265" s="8">
-        <v>43364</v>
-      </c>
-      <c r="B265" s="4"/>
-      <c r="C265"/>
-      <c r="D265"/>
-      <c r="E265"/>
-      <c r="F265"/>
-      <c r="G265"/>
-      <c r="H265"/>
-      <c r="I265"/>
-      <c r="J265"/>
-      <c r="K265"/>
-      <c r="L265"/>
-      <c r="M265"/>
-      <c r="N265"/>
-    </row>
-    <row r="266" spans="1:14">
-      <c r="A266" s="8">
-        <v>43365</v>
-      </c>
-      <c r="B266" s="4"/>
-      <c r="C266"/>
-      <c r="D266"/>
-      <c r="E266"/>
-      <c r="F266"/>
-      <c r="G266"/>
-      <c r="H266"/>
-      <c r="I266"/>
-      <c r="J266"/>
-      <c r="K266"/>
-      <c r="L266"/>
-      <c r="M266"/>
-      <c r="N266"/>
-    </row>
-    <row r="267" spans="1:14">
-      <c r="A267" s="8">
-        <v>43366</v>
-      </c>
-      <c r="B267" s="4"/>
-      <c r="C267"/>
-      <c r="D267"/>
-      <c r="E267"/>
-      <c r="F267"/>
-      <c r="G267"/>
-      <c r="H267"/>
-      <c r="I267"/>
-      <c r="J267"/>
-      <c r="K267"/>
-      <c r="L267"/>
-      <c r="M267"/>
-      <c r="N267"/>
-    </row>
-    <row r="268" spans="1:14">
-      <c r="A268" s="8">
-        <v>43367</v>
-      </c>
-      <c r="B268" s="4"/>
-      <c r="C268"/>
-      <c r="D268"/>
-      <c r="E268"/>
-      <c r="F268"/>
-      <c r="G268"/>
-      <c r="H268"/>
-      <c r="I268"/>
-      <c r="J268"/>
-      <c r="K268"/>
-      <c r="L268"/>
-      <c r="M268"/>
-      <c r="N268"/>
-    </row>
-    <row r="269" spans="1:14">
-      <c r="A269" s="8">
-        <v>43368</v>
-      </c>
-      <c r="B269" s="4"/>
-      <c r="C269"/>
-      <c r="D269"/>
-      <c r="E269"/>
-      <c r="F269"/>
-      <c r="G269"/>
-      <c r="H269"/>
-      <c r="I269"/>
-      <c r="J269"/>
-      <c r="K269"/>
-      <c r="L269"/>
-      <c r="M269"/>
-      <c r="N269"/>
-    </row>
-    <row r="270" spans="1:14">
-      <c r="A270" s="8">
-        <v>43369</v>
-      </c>
-      <c r="B270" s="4"/>
-      <c r="C270"/>
-      <c r="D270"/>
-      <c r="E270"/>
-      <c r="F270"/>
-      <c r="G270"/>
-      <c r="H270"/>
-      <c r="I270"/>
-      <c r="J270"/>
-      <c r="K270"/>
-      <c r="L270"/>
-      <c r="M270"/>
-      <c r="N270"/>
-    </row>
-    <row r="271" spans="1:14">
-      <c r="A271" s="8">
-        <v>43370</v>
-      </c>
-      <c r="B271" s="4"/>
-      <c r="C271"/>
-      <c r="D271"/>
-      <c r="E271"/>
-      <c r="F271"/>
-      <c r="G271"/>
-      <c r="H271"/>
-      <c r="I271"/>
-      <c r="J271"/>
-      <c r="K271"/>
-      <c r="L271"/>
-      <c r="M271"/>
-      <c r="N271"/>
-    </row>
-    <row r="272" spans="1:14">
-      <c r="A272" s="8">
-        <v>43371</v>
-      </c>
-      <c r="B272" s="4"/>
-      <c r="C272"/>
-      <c r="D272"/>
-      <c r="E272"/>
-      <c r="F272"/>
-      <c r="G272"/>
-      <c r="H272"/>
-      <c r="I272"/>
-      <c r="J272"/>
-      <c r="K272"/>
-      <c r="L272"/>
-      <c r="M272"/>
-      <c r="N272"/>
-    </row>
-    <row r="273" spans="1:14">
-      <c r="A273" s="8">
-        <v>43372</v>
-      </c>
-      <c r="B273" s="4"/>
-      <c r="C273"/>
-      <c r="D273"/>
-      <c r="E273"/>
-      <c r="F273"/>
-      <c r="G273"/>
-      <c r="H273"/>
-      <c r="I273"/>
-      <c r="J273"/>
-      <c r="K273"/>
-      <c r="L273"/>
-      <c r="M273"/>
-      <c r="N273"/>
-    </row>
-    <row r="274" spans="1:14">
-      <c r="A274" s="8">
-        <v>43373</v>
-      </c>
-      <c r="B274" s="4"/>
-      <c r="C274"/>
-      <c r="D274"/>
-      <c r="E274"/>
-      <c r="F274"/>
-      <c r="G274"/>
-      <c r="H274"/>
-      <c r="I274"/>
-      <c r="J274"/>
-      <c r="K274"/>
-      <c r="L274"/>
-      <c r="M274"/>
-      <c r="N274"/>
-    </row>
-    <row r="275" spans="1:14">
-      <c r="A275" s="8">
-        <v>43374</v>
-      </c>
-      <c r="B275" s="4"/>
-      <c r="C275"/>
-      <c r="D275"/>
-      <c r="E275"/>
-      <c r="F275"/>
-      <c r="G275"/>
-      <c r="H275"/>
-      <c r="I275"/>
-      <c r="J275"/>
-      <c r="K275"/>
-      <c r="L275"/>
-      <c r="M275"/>
-      <c r="N275"/>
-    </row>
-    <row r="276" spans="1:14">
-      <c r="A276" s="8">
-        <v>43375</v>
-      </c>
-      <c r="B276" s="4"/>
-      <c r="C276"/>
-      <c r="D276"/>
-      <c r="E276"/>
-      <c r="F276"/>
-      <c r="G276"/>
-      <c r="H276"/>
-      <c r="I276"/>
-      <c r="J276"/>
-      <c r="K276"/>
-      <c r="L276"/>
-      <c r="M276"/>
-      <c r="N276"/>
-    </row>
-    <row r="277" spans="1:14">
-      <c r="A277" s="8">
-        <v>43376</v>
-      </c>
-      <c r="B277" s="4"/>
-      <c r="C277"/>
-      <c r="D277"/>
-      <c r="E277"/>
-      <c r="F277"/>
-      <c r="G277"/>
-      <c r="H277"/>
-      <c r="I277"/>
-      <c r="J277"/>
-      <c r="K277"/>
-      <c r="L277"/>
-      <c r="M277"/>
-      <c r="N277"/>
-    </row>
-    <row r="278" spans="1:14">
-      <c r="A278" s="8">
-        <v>43377</v>
-      </c>
-      <c r="B278" s="4"/>
-      <c r="C278"/>
-      <c r="D278"/>
-      <c r="E278"/>
-      <c r="F278"/>
-      <c r="G278"/>
-      <c r="H278"/>
-      <c r="I278"/>
-      <c r="J278"/>
-      <c r="K278"/>
-      <c r="L278"/>
-      <c r="M278"/>
-      <c r="N278"/>
-    </row>
-    <row r="279" spans="1:14">
-      <c r="A279" s="8">
-        <v>43378</v>
-      </c>
-      <c r="B279" s="4"/>
-      <c r="C279"/>
-      <c r="D279"/>
-      <c r="E279"/>
-      <c r="F279"/>
-      <c r="G279"/>
-      <c r="H279"/>
-      <c r="I279"/>
-      <c r="J279"/>
-      <c r="K279"/>
-      <c r="L279"/>
-      <c r="M279"/>
-      <c r="N279"/>
-    </row>
-    <row r="280" spans="1:14">
-      <c r="A280" s="8">
-        <v>43379</v>
-      </c>
-      <c r="B280" s="4"/>
-      <c r="C280"/>
-      <c r="D280"/>
-      <c r="E280"/>
-      <c r="F280"/>
-      <c r="G280"/>
-      <c r="H280"/>
-      <c r="I280"/>
-      <c r="J280"/>
-      <c r="K280"/>
-      <c r="L280"/>
-      <c r="M280"/>
-      <c r="N280"/>
-    </row>
-    <row r="281" spans="1:14">
-      <c r="A281" s="8">
-        <v>43380</v>
-      </c>
-      <c r="B281" s="4"/>
-      <c r="C281"/>
-      <c r="D281"/>
-      <c r="E281"/>
-      <c r="F281"/>
-      <c r="G281"/>
-      <c r="H281"/>
-      <c r="I281"/>
-      <c r="J281"/>
-      <c r="K281"/>
-      <c r="L281"/>
-      <c r="M281"/>
-      <c r="N281"/>
-    </row>
-    <row r="282" spans="1:14">
-      <c r="A282" s="8">
-        <v>43381</v>
-      </c>
-      <c r="B282" s="4"/>
-      <c r="C282"/>
-      <c r="D282"/>
-      <c r="E282"/>
-      <c r="F282"/>
-      <c r="G282"/>
-      <c r="H282"/>
-      <c r="I282"/>
-      <c r="J282"/>
-      <c r="K282"/>
-      <c r="L282"/>
-      <c r="M282"/>
-      <c r="N282"/>
-    </row>
-    <row r="283" spans="1:14">
-      <c r="A283" s="8">
-        <v>43382</v>
-      </c>
-      <c r="B283" s="4"/>
-      <c r="C283"/>
-      <c r="D283"/>
-      <c r="E283"/>
-      <c r="F283"/>
-      <c r="G283"/>
-      <c r="H283"/>
-      <c r="I283"/>
-      <c r="J283"/>
-      <c r="K283"/>
-      <c r="L283"/>
-      <c r="M283"/>
-      <c r="N283"/>
-    </row>
-    <row r="284" spans="1:14">
-      <c r="A284" s="8">
-        <v>43383</v>
-      </c>
-      <c r="B284" s="4"/>
-      <c r="C284"/>
-      <c r="D284"/>
-      <c r="E284"/>
-      <c r="F284"/>
-      <c r="G284"/>
-      <c r="H284"/>
-      <c r="I284"/>
-      <c r="J284"/>
-      <c r="K284"/>
-      <c r="L284"/>
-      <c r="M284"/>
-      <c r="N284"/>
-    </row>
-    <row r="285" spans="1:14">
-      <c r="A285" s="8">
-        <v>43384</v>
-      </c>
-      <c r="B285" s="4"/>
-      <c r="C285"/>
-      <c r="D285"/>
-      <c r="E285"/>
-      <c r="F285"/>
-      <c r="G285"/>
-      <c r="H285"/>
-      <c r="I285"/>
-      <c r="J285"/>
-      <c r="K285"/>
-      <c r="L285"/>
-      <c r="M285"/>
-      <c r="N285"/>
-    </row>
-    <row r="286" spans="1:14">
-      <c r="A286" s="8">
-        <v>43385</v>
-      </c>
-      <c r="B286" s="4"/>
-      <c r="C286"/>
-      <c r="D286"/>
-      <c r="E286"/>
-      <c r="F286"/>
-      <c r="G286"/>
-      <c r="H286"/>
-      <c r="I286"/>
-      <c r="J286"/>
-      <c r="K286"/>
-      <c r="L286"/>
-      <c r="M286"/>
-      <c r="N286"/>
-    </row>
-    <row r="287" spans="1:14">
-      <c r="A287" s="8">
-        <v>43386</v>
-      </c>
-      <c r="B287" s="4"/>
-      <c r="C287"/>
-      <c r="D287"/>
-      <c r="E287"/>
-      <c r="F287"/>
-      <c r="G287"/>
-      <c r="H287"/>
-      <c r="I287"/>
-      <c r="J287"/>
-      <c r="K287"/>
-      <c r="L287"/>
-      <c r="M287"/>
-      <c r="N287"/>
-    </row>
-    <row r="288" spans="1:14">
-      <c r="A288" s="8">
-        <v>43387</v>
-      </c>
-      <c r="B288" s="4"/>
-      <c r="C288"/>
-      <c r="D288"/>
-      <c r="E288"/>
-      <c r="F288"/>
-      <c r="G288"/>
-      <c r="H288"/>
-      <c r="I288"/>
-      <c r="J288"/>
-      <c r="K288"/>
-      <c r="L288"/>
-      <c r="M288"/>
-      <c r="N288"/>
-    </row>
-    <row r="289" spans="1:14">
-      <c r="A289" s="8">
-        <v>43388</v>
-      </c>
-      <c r="B289" s="4"/>
-      <c r="C289"/>
-      <c r="D289"/>
-      <c r="E289"/>
-      <c r="F289"/>
-      <c r="G289"/>
-      <c r="H289"/>
-      <c r="I289"/>
-      <c r="J289"/>
-      <c r="K289"/>
-      <c r="L289"/>
-      <c r="M289"/>
-      <c r="N289"/>
-    </row>
-    <row r="290" spans="1:14">
-      <c r="A290" s="8">
-        <v>43389</v>
-      </c>
-      <c r="B290" s="4"/>
-      <c r="C290"/>
-      <c r="D290"/>
-      <c r="E290"/>
-      <c r="F290"/>
-      <c r="G290"/>
-      <c r="H290"/>
-      <c r="I290"/>
-      <c r="J290"/>
-      <c r="K290"/>
-      <c r="L290"/>
-      <c r="M290"/>
-      <c r="N290"/>
-    </row>
-    <row r="291" spans="1:14">
-      <c r="A291" s="8">
-        <v>43390</v>
-      </c>
-      <c r="B291" s="4"/>
-      <c r="C291"/>
-      <c r="D291"/>
-      <c r="E291"/>
-      <c r="F291"/>
-      <c r="G291"/>
-      <c r="H291"/>
-      <c r="I291"/>
-      <c r="J291"/>
-      <c r="K291"/>
-      <c r="L291"/>
-      <c r="M291"/>
-      <c r="N291"/>
-    </row>
-    <row r="292" spans="1:14">
-      <c r="A292" s="8">
-        <v>43391</v>
-      </c>
-      <c r="B292" s="4"/>
-      <c r="C292"/>
-      <c r="D292"/>
-      <c r="E292"/>
-      <c r="F292"/>
-      <c r="G292"/>
-      <c r="H292"/>
-      <c r="I292"/>
-      <c r="J292"/>
-      <c r="K292"/>
-      <c r="L292"/>
-      <c r="M292"/>
-      <c r="N292"/>
-    </row>
-    <row r="293" spans="1:14">
-      <c r="A293" s="8">
-        <v>43392</v>
-      </c>
-      <c r="B293" s="4"/>
-      <c r="C293"/>
-      <c r="D293"/>
-      <c r="E293"/>
-      <c r="F293"/>
-      <c r="G293"/>
-      <c r="H293"/>
-      <c r="I293"/>
-      <c r="J293"/>
-      <c r="K293"/>
-      <c r="L293"/>
-      <c r="M293"/>
-      <c r="N293"/>
-    </row>
-    <row r="294" spans="1:14">
-      <c r="A294" s="8">
-        <v>43393</v>
-      </c>
-      <c r="B294" s="4"/>
-      <c r="C294"/>
-      <c r="D294"/>
-      <c r="E294"/>
-      <c r="F294"/>
-      <c r="G294"/>
-      <c r="H294"/>
-      <c r="I294"/>
-      <c r="J294"/>
-      <c r="K294"/>
-      <c r="L294"/>
-      <c r="M294"/>
-      <c r="N294"/>
-    </row>
-    <row r="295" spans="1:14">
-      <c r="A295" s="8">
-        <v>43394</v>
-      </c>
-      <c r="B295" s="4"/>
-      <c r="C295"/>
-      <c r="D295"/>
-      <c r="E295"/>
-      <c r="F295"/>
-      <c r="G295"/>
-      <c r="H295"/>
-      <c r="I295"/>
-      <c r="J295"/>
-      <c r="K295"/>
-      <c r="L295"/>
-      <c r="M295"/>
-      <c r="N295"/>
-    </row>
-    <row r="296" spans="1:14">
-      <c r="A296" s="8">
-        <v>43395</v>
-      </c>
-      <c r="B296" s="4"/>
-      <c r="C296"/>
-      <c r="D296"/>
-      <c r="E296"/>
-      <c r="F296"/>
-      <c r="G296"/>
-      <c r="H296"/>
-      <c r="I296"/>
-      <c r="J296"/>
-      <c r="K296"/>
-      <c r="L296"/>
-      <c r="M296"/>
-      <c r="N296"/>
-    </row>
-    <row r="297" spans="1:14">
-      <c r="A297" s="8">
-        <v>43396</v>
-      </c>
-      <c r="B297" s="4"/>
-      <c r="C297"/>
-      <c r="D297"/>
-      <c r="E297"/>
-      <c r="F297"/>
-      <c r="G297"/>
-      <c r="H297"/>
-      <c r="I297"/>
-      <c r="J297"/>
-      <c r="K297"/>
-      <c r="L297"/>
-      <c r="M297"/>
-      <c r="N297"/>
-    </row>
-    <row r="298" spans="1:14">
-      <c r="A298" s="8">
-        <v>43397</v>
-      </c>
-      <c r="B298" s="4"/>
-      <c r="C298"/>
-      <c r="D298"/>
-      <c r="E298"/>
-      <c r="F298"/>
-      <c r="G298"/>
-      <c r="H298"/>
-      <c r="I298"/>
-      <c r="J298"/>
-      <c r="K298"/>
-      <c r="L298"/>
-      <c r="M298"/>
-      <c r="N298"/>
-    </row>
-    <row r="299" spans="1:14">
-      <c r="A299" s="8">
-        <v>43398</v>
-      </c>
-      <c r="B299" s="4"/>
-      <c r="C299"/>
-      <c r="D299"/>
-      <c r="E299"/>
-      <c r="F299"/>
-      <c r="G299"/>
-      <c r="H299"/>
-      <c r="I299"/>
-      <c r="J299"/>
-      <c r="K299"/>
-      <c r="L299"/>
-      <c r="M299"/>
-      <c r="N299"/>
-    </row>
-    <row r="300" spans="1:14">
-      <c r="A300" s="8">
-        <v>43399</v>
-      </c>
-      <c r="B300" s="4"/>
-      <c r="C300"/>
-      <c r="D300"/>
-      <c r="E300"/>
-      <c r="F300"/>
-      <c r="G300"/>
-      <c r="H300"/>
-      <c r="I300"/>
-      <c r="J300"/>
-      <c r="K300"/>
-      <c r="L300"/>
-      <c r="M300"/>
-      <c r="N300"/>
-    </row>
-    <row r="301" spans="1:14">
-      <c r="A301" s="8">
-        <v>43400</v>
-      </c>
-      <c r="B301" s="4"/>
-      <c r="C301"/>
-      <c r="D301"/>
-      <c r="E301"/>
-      <c r="F301"/>
-      <c r="G301"/>
-      <c r="H301"/>
-      <c r="I301"/>
-      <c r="J301"/>
-      <c r="K301"/>
-      <c r="L301"/>
-      <c r="M301"/>
-      <c r="N301"/>
-    </row>
-    <row r="302" spans="1:14">
-      <c r="A302" s="8">
-        <v>43401</v>
-      </c>
-      <c r="B302" s="4"/>
-      <c r="C302"/>
-      <c r="D302"/>
-      <c r="E302"/>
-      <c r="F302"/>
-      <c r="G302"/>
-      <c r="H302"/>
-      <c r="I302"/>
-      <c r="J302"/>
-      <c r="K302"/>
-      <c r="L302"/>
-      <c r="M302"/>
-      <c r="N302"/>
-    </row>
-    <row r="303" spans="1:14">
-      <c r="A303" s="8">
-        <v>43402</v>
-      </c>
-      <c r="B303" s="4"/>
-      <c r="C303"/>
-      <c r="D303"/>
-      <c r="E303"/>
-      <c r="F303"/>
-      <c r="G303"/>
-      <c r="H303"/>
-      <c r="I303"/>
-      <c r="J303"/>
-      <c r="K303"/>
-      <c r="L303"/>
-      <c r="M303"/>
-      <c r="N303"/>
-    </row>
-    <row r="304" spans="1:14">
-      <c r="A304" s="8">
-        <v>43403</v>
-      </c>
-      <c r="B304" s="4"/>
-      <c r="C304"/>
-      <c r="D304"/>
-      <c r="E304"/>
-      <c r="F304"/>
-      <c r="G304"/>
-      <c r="H304"/>
-      <c r="I304"/>
-      <c r="J304"/>
-      <c r="K304"/>
-      <c r="L304"/>
-      <c r="M304"/>
-      <c r="N304"/>
-    </row>
-    <row r="305" spans="1:14">
-      <c r="A305" s="8">
-        <v>43404</v>
-      </c>
-      <c r="B305" s="4"/>
-      <c r="C305"/>
-      <c r="D305"/>
-      <c r="E305"/>
-      <c r="F305"/>
-      <c r="G305"/>
-      <c r="H305"/>
-      <c r="I305"/>
-      <c r="J305"/>
-      <c r="K305"/>
-      <c r="L305"/>
-      <c r="M305"/>
-      <c r="N305"/>
-    </row>
-    <row r="306" spans="1:14">
-      <c r="A306" s="8">
-        <v>43405</v>
-      </c>
-      <c r="B306" s="4"/>
-      <c r="C306"/>
-      <c r="D306"/>
-      <c r="E306"/>
-      <c r="F306"/>
-      <c r="G306"/>
-      <c r="H306"/>
-      <c r="I306"/>
-      <c r="J306"/>
-      <c r="K306"/>
-      <c r="L306"/>
-      <c r="M306"/>
-      <c r="N306"/>
-    </row>
-    <row r="307" spans="1:14">
-      <c r="A307" s="8">
-        <v>43406</v>
-      </c>
-      <c r="B307" s="4"/>
-      <c r="C307"/>
-      <c r="D307"/>
-      <c r="E307"/>
-      <c r="F307"/>
-      <c r="G307"/>
-      <c r="H307"/>
-      <c r="I307"/>
-      <c r="J307"/>
-      <c r="K307"/>
-      <c r="L307"/>
-      <c r="M307"/>
-      <c r="N307"/>
-    </row>
-    <row r="308" spans="1:14">
-      <c r="A308" s="8">
-        <v>43407</v>
-      </c>
-      <c r="B308" s="4"/>
-      <c r="C308"/>
-      <c r="D308"/>
-      <c r="E308"/>
-      <c r="F308"/>
-      <c r="G308"/>
-      <c r="H308"/>
-      <c r="I308"/>
-      <c r="J308"/>
-      <c r="K308"/>
-      <c r="L308"/>
-      <c r="M308"/>
-      <c r="N308"/>
-    </row>
-    <row r="309" spans="1:14">
-      <c r="A309" s="8">
-        <v>43408</v>
-      </c>
-      <c r="B309" s="4"/>
-      <c r="C309"/>
-      <c r="D309"/>
-      <c r="E309"/>
-      <c r="F309"/>
-      <c r="G309"/>
-      <c r="H309"/>
-      <c r="I309"/>
-      <c r="J309"/>
-      <c r="K309"/>
-      <c r="L309"/>
-      <c r="M309"/>
-      <c r="N309"/>
-    </row>
-    <row r="310" spans="1:14">
-      <c r="A310" s="8">
-        <v>43409</v>
-      </c>
-      <c r="B310" s="4"/>
-      <c r="C310"/>
-      <c r="D310"/>
-      <c r="E310"/>
-      <c r="F310"/>
-      <c r="G310"/>
-      <c r="H310"/>
-      <c r="I310"/>
-      <c r="J310"/>
-      <c r="K310"/>
-      <c r="L310"/>
-      <c r="M310"/>
-      <c r="N310"/>
-    </row>
-    <row r="311" spans="1:14">
-      <c r="A311" s="8">
-        <v>43410</v>
-      </c>
-      <c r="B311" s="4"/>
-      <c r="C311"/>
-      <c r="D311"/>
-      <c r="E311"/>
-      <c r="F311"/>
-      <c r="G311"/>
-      <c r="H311"/>
-      <c r="I311"/>
-      <c r="J311"/>
-      <c r="K311"/>
-      <c r="L311"/>
-      <c r="M311"/>
-      <c r="N311"/>
-    </row>
-    <row r="312" spans="1:14">
-      <c r="A312" s="8">
-        <v>43411</v>
-      </c>
-      <c r="B312" s="4"/>
-      <c r="C312"/>
-      <c r="D312"/>
-      <c r="E312"/>
-      <c r="F312"/>
-      <c r="G312"/>
-      <c r="H312"/>
-      <c r="I312"/>
-      <c r="J312"/>
-      <c r="K312"/>
-      <c r="L312"/>
-      <c r="M312"/>
-      <c r="N312"/>
-    </row>
-    <row r="313" spans="1:14">
-      <c r="A313" s="8">
-        <v>43412</v>
-      </c>
-      <c r="B313" s="4"/>
-      <c r="C313"/>
-      <c r="D313"/>
-      <c r="E313"/>
-      <c r="F313"/>
-      <c r="G313"/>
-      <c r="H313"/>
-      <c r="I313"/>
-      <c r="J313"/>
-      <c r="K313"/>
-      <c r="L313"/>
-      <c r="M313"/>
-      <c r="N313"/>
-    </row>
-    <row r="314" spans="1:14">
-      <c r="A314" s="8">
-        <v>43413</v>
-      </c>
-      <c r="B314" s="4"/>
-      <c r="C314"/>
-      <c r="D314"/>
-      <c r="E314"/>
-      <c r="F314"/>
-      <c r="G314"/>
-      <c r="H314"/>
-      <c r="I314"/>
-      <c r="J314"/>
-      <c r="K314"/>
-      <c r="L314"/>
-      <c r="M314"/>
-      <c r="N314"/>
-    </row>
-    <row r="315" spans="1:14">
-      <c r="A315" s="8">
-        <v>43414</v>
-      </c>
-      <c r="B315" s="4"/>
-      <c r="C315"/>
-      <c r="D315"/>
-      <c r="E315"/>
-      <c r="F315"/>
-      <c r="G315"/>
-      <c r="H315"/>
-      <c r="I315"/>
-      <c r="J315"/>
-      <c r="K315"/>
-      <c r="L315"/>
-      <c r="M315"/>
-      <c r="N315"/>
-    </row>
-    <row r="316" spans="1:14">
-      <c r="A316" s="8">
-        <v>43415</v>
-      </c>
-      <c r="B316" s="4"/>
-      <c r="C316"/>
-      <c r="D316"/>
-      <c r="E316"/>
-      <c r="F316"/>
-      <c r="G316"/>
-      <c r="H316"/>
-      <c r="I316"/>
-      <c r="J316"/>
-      <c r="K316"/>
-      <c r="L316"/>
-      <c r="M316"/>
-      <c r="N316"/>
-    </row>
-    <row r="317" spans="1:14">
-      <c r="A317" s="8">
-        <v>43416</v>
-      </c>
-      <c r="B317" s="4"/>
-      <c r="C317"/>
-      <c r="D317"/>
-      <c r="E317"/>
-      <c r="F317"/>
-      <c r="G317"/>
-      <c r="H317"/>
-      <c r="I317"/>
-      <c r="J317"/>
-      <c r="K317"/>
-      <c r="L317"/>
-      <c r="M317"/>
-      <c r="N317"/>
-    </row>
-    <row r="318" spans="1:14">
-      <c r="A318" s="8">
-        <v>43417</v>
-      </c>
-      <c r="B318" s="4"/>
-      <c r="C318"/>
-      <c r="D318"/>
-      <c r="E318"/>
-      <c r="F318"/>
-      <c r="G318"/>
-      <c r="H318"/>
-      <c r="I318"/>
-      <c r="J318"/>
-      <c r="K318"/>
-      <c r="L318"/>
-      <c r="M318"/>
-      <c r="N318"/>
-    </row>
-    <row r="319" spans="1:14">
-      <c r="A319" s="8">
-        <v>43418</v>
-      </c>
-      <c r="B319" s="4"/>
-      <c r="C319"/>
-      <c r="D319"/>
-      <c r="E319"/>
-      <c r="F319"/>
-      <c r="G319"/>
-      <c r="H319"/>
-      <c r="I319"/>
-      <c r="J319"/>
-      <c r="K319"/>
-      <c r="L319"/>
-      <c r="M319"/>
-      <c r="N319"/>
-    </row>
-    <row r="320" spans="1:14">
-      <c r="A320" s="8">
-        <v>43419</v>
-      </c>
-      <c r="B320" s="4"/>
-      <c r="C320"/>
-      <c r="D320"/>
-      <c r="E320"/>
-      <c r="F320"/>
-      <c r="G320"/>
-      <c r="H320"/>
-      <c r="I320"/>
-      <c r="J320"/>
-      <c r="K320"/>
-      <c r="L320"/>
-      <c r="M320"/>
-      <c r="N320"/>
-    </row>
-    <row r="321" spans="1:14">
-      <c r="A321" s="8">
-        <v>43420</v>
-      </c>
-      <c r="B321" s="4"/>
-      <c r="C321"/>
-      <c r="D321"/>
-      <c r="E321"/>
-      <c r="F321"/>
-      <c r="G321"/>
-      <c r="H321"/>
-      <c r="I321"/>
-      <c r="J321"/>
-      <c r="K321"/>
-      <c r="L321"/>
-      <c r="M321"/>
-      <c r="N321"/>
-    </row>
-    <row r="322" spans="1:14">
-      <c r="A322" s="8">
-        <v>43421</v>
-      </c>
-      <c r="B322" s="4"/>
-      <c r="C322"/>
-      <c r="D322"/>
-      <c r="E322"/>
-      <c r="F322"/>
-      <c r="G322"/>
-      <c r="H322"/>
-      <c r="I322"/>
-      <c r="J322"/>
-      <c r="K322"/>
-      <c r="L322"/>
-      <c r="M322"/>
-      <c r="N322"/>
-    </row>
-    <row r="323" spans="1:14">
-      <c r="A323" s="8">
-        <v>43422</v>
-      </c>
-      <c r="B323" s="4"/>
-      <c r="C323"/>
-      <c r="D323"/>
-      <c r="E323"/>
-      <c r="F323"/>
-      <c r="G323"/>
-      <c r="H323"/>
-      <c r="I323"/>
-      <c r="J323"/>
-      <c r="K323"/>
-      <c r="L323"/>
-      <c r="M323"/>
-      <c r="N323"/>
-    </row>
-    <row r="324" spans="1:14">
-      <c r="A324" s="8">
-        <v>43423</v>
-      </c>
-      <c r="B324" s="4"/>
-      <c r="C324"/>
-      <c r="D324"/>
-      <c r="E324"/>
-      <c r="F324"/>
-      <c r="G324"/>
-      <c r="H324"/>
-      <c r="I324"/>
-      <c r="J324"/>
-      <c r="K324"/>
-      <c r="L324"/>
-      <c r="M324"/>
-      <c r="N324"/>
-    </row>
-    <row r="325" spans="1:14">
-      <c r="A325" s="8">
-        <v>43424</v>
-      </c>
-      <c r="B325" s="4"/>
-      <c r="C325"/>
-      <c r="D325"/>
-      <c r="E325"/>
-      <c r="F325"/>
-      <c r="G325"/>
-      <c r="H325"/>
-      <c r="I325"/>
-      <c r="J325"/>
-      <c r="K325"/>
-      <c r="L325"/>
-      <c r="M325"/>
-      <c r="N325"/>
-    </row>
-    <row r="326" spans="1:14">
-      <c r="A326" s="8">
-        <v>43425</v>
-      </c>
-      <c r="B326" s="4"/>
-      <c r="C326"/>
-      <c r="D326"/>
-      <c r="E326"/>
-      <c r="F326"/>
-      <c r="G326"/>
-      <c r="H326"/>
-      <c r="I326"/>
-      <c r="J326"/>
-      <c r="K326"/>
-      <c r="L326"/>
-      <c r="M326"/>
-      <c r="N326"/>
-    </row>
-    <row r="327" spans="1:14">
-      <c r="A327" s="8">
-        <v>43426</v>
-      </c>
-      <c r="B327" s="4"/>
-      <c r="C327"/>
-      <c r="D327"/>
-      <c r="E327"/>
-      <c r="F327"/>
-      <c r="G327"/>
-      <c r="H327"/>
-      <c r="I327"/>
-      <c r="J327"/>
-      <c r="K327"/>
-      <c r="L327"/>
-      <c r="M327"/>
-      <c r="N327"/>
-    </row>
-    <row r="328" spans="1:14">
-      <c r="A328" s="8">
-        <v>43427</v>
-      </c>
-      <c r="B328" s="4"/>
-      <c r="C328"/>
-      <c r="D328"/>
-      <c r="E328"/>
-      <c r="F328"/>
-      <c r="G328"/>
-      <c r="H328"/>
-      <c r="I328"/>
-      <c r="J328"/>
-      <c r="K328"/>
-      <c r="L328"/>
-      <c r="M328"/>
-      <c r="N328"/>
-    </row>
-    <row r="329" spans="1:14">
-      <c r="A329" s="8">
-        <v>43428</v>
-      </c>
-      <c r="B329" s="4"/>
-      <c r="C329"/>
-      <c r="D329"/>
-      <c r="E329"/>
-      <c r="F329"/>
-      <c r="G329"/>
-      <c r="H329"/>
-      <c r="I329"/>
-      <c r="J329"/>
-      <c r="K329"/>
-      <c r="L329"/>
-      <c r="M329"/>
-      <c r="N329"/>
-    </row>
-    <row r="330" spans="1:14">
-      <c r="A330" s="8">
-        <v>43429</v>
-      </c>
-      <c r="B330" s="4"/>
-      <c r="C330"/>
-      <c r="D330"/>
-      <c r="E330"/>
-      <c r="F330"/>
-      <c r="G330"/>
-      <c r="H330"/>
-      <c r="I330"/>
-      <c r="J330"/>
-      <c r="K330"/>
-      <c r="L330"/>
-      <c r="M330"/>
-      <c r="N330"/>
-    </row>
-    <row r="331" spans="1:14">
-      <c r="A331" s="8">
-        <v>43430</v>
-      </c>
-      <c r="B331" s="4"/>
-      <c r="C331"/>
-      <c r="D331"/>
-      <c r="E331"/>
-      <c r="F331"/>
-      <c r="G331"/>
-      <c r="H331"/>
-      <c r="I331"/>
-      <c r="J331"/>
-      <c r="K331"/>
-      <c r="L331"/>
-      <c r="M331"/>
-      <c r="N331"/>
-    </row>
-    <row r="332" spans="1:14">
-      <c r="A332" s="8">
-        <v>43431</v>
-      </c>
-      <c r="B332" s="4"/>
-      <c r="C332"/>
-      <c r="D332"/>
-      <c r="E332"/>
-      <c r="F332"/>
-      <c r="G332"/>
-      <c r="H332"/>
-      <c r="I332"/>
-      <c r="J332"/>
-      <c r="K332"/>
-      <c r="L332"/>
-      <c r="M332"/>
-      <c r="N332"/>
-    </row>
-    <row r="333" spans="1:14">
-      <c r="A333" s="8">
-        <v>43432</v>
-      </c>
-      <c r="B333" s="4"/>
-      <c r="C333"/>
-      <c r="D333"/>
-      <c r="E333"/>
-      <c r="F333"/>
-      <c r="G333"/>
-      <c r="H333"/>
-      <c r="I333"/>
-      <c r="J333"/>
-      <c r="K333"/>
-      <c r="L333"/>
-      <c r="M333"/>
-      <c r="N333"/>
-    </row>
-    <row r="334" spans="1:14">
-      <c r="A334" s="8">
-        <v>43433</v>
-      </c>
-      <c r="B334" s="4"/>
-      <c r="C334"/>
-      <c r="D334"/>
-      <c r="E334"/>
-      <c r="F334"/>
-      <c r="G334"/>
-      <c r="H334"/>
-      <c r="I334"/>
-      <c r="J334"/>
-      <c r="K334"/>
-      <c r="L334"/>
-      <c r="M334"/>
-      <c r="N334"/>
-    </row>
-    <row r="335" spans="1:14">
-      <c r="A335" s="8">
-        <v>43434</v>
-      </c>
-      <c r="B335" s="4"/>
-      <c r="C335"/>
-      <c r="D335"/>
-      <c r="E335"/>
-      <c r="F335"/>
-      <c r="G335"/>
-      <c r="H335"/>
-      <c r="I335"/>
-      <c r="J335"/>
-      <c r="K335"/>
-      <c r="L335"/>
-      <c r="M335"/>
-      <c r="N335"/>
-    </row>
-    <row r="336" spans="1:14">
-      <c r="A336" s="8">
-        <v>43435</v>
-      </c>
-      <c r="B336" s="4"/>
-      <c r="C336"/>
-      <c r="D336"/>
-      <c r="E336"/>
-      <c r="F336"/>
-      <c r="G336"/>
-      <c r="H336"/>
-      <c r="I336"/>
-      <c r="J336"/>
-      <c r="K336"/>
-      <c r="L336"/>
-      <c r="M336"/>
-      <c r="N336"/>
-    </row>
-    <row r="337" spans="1:14">
-      <c r="A337" s="8">
-        <v>43436</v>
-      </c>
-      <c r="B337" s="4"/>
-      <c r="C337"/>
-      <c r="D337"/>
-      <c r="E337"/>
-      <c r="F337"/>
-      <c r="G337"/>
-      <c r="H337"/>
-      <c r="I337"/>
-      <c r="J337"/>
-      <c r="K337"/>
-      <c r="L337"/>
-      <c r="M337"/>
-      <c r="N337"/>
-    </row>
-    <row r="338" spans="1:14">
-      <c r="A338" s="8">
-        <v>43437</v>
-      </c>
-      <c r="B338" s="4"/>
-      <c r="C338"/>
-      <c r="D338"/>
-      <c r="E338"/>
-      <c r="F338"/>
-      <c r="G338"/>
-      <c r="H338"/>
-      <c r="I338"/>
-      <c r="J338"/>
-      <c r="K338"/>
-      <c r="L338"/>
-      <c r="M338"/>
-      <c r="N338"/>
-    </row>
-    <row r="339" spans="1:14">
-      <c r="A339" s="8">
-        <v>43438</v>
-      </c>
-      <c r="B339" s="4"/>
-      <c r="C339"/>
-      <c r="D339"/>
-      <c r="E339"/>
-      <c r="F339"/>
-      <c r="G339"/>
-      <c r="H339"/>
-      <c r="I339"/>
-      <c r="J339"/>
-      <c r="K339"/>
-      <c r="L339"/>
-      <c r="M339"/>
-      <c r="N339"/>
-    </row>
-    <row r="340" spans="1:14">
-      <c r="A340" s="8">
-        <v>43439</v>
-      </c>
-      <c r="B340" s="4"/>
-      <c r="C340"/>
-      <c r="D340"/>
-      <c r="E340"/>
-      <c r="F340"/>
-      <c r="G340"/>
-      <c r="H340"/>
-      <c r="I340"/>
-      <c r="J340"/>
-      <c r="K340"/>
-      <c r="L340"/>
-      <c r="M340"/>
-      <c r="N340"/>
-    </row>
-    <row r="341" spans="1:14">
-      <c r="A341" s="8">
-        <v>43440</v>
-      </c>
-      <c r="B341" s="4"/>
-      <c r="C341"/>
-      <c r="D341"/>
-      <c r="E341"/>
-      <c r="F341"/>
-      <c r="G341"/>
-      <c r="H341"/>
-      <c r="I341"/>
-      <c r="J341"/>
-      <c r="K341"/>
-      <c r="L341"/>
-      <c r="M341"/>
-      <c r="N341"/>
-    </row>
-    <row r="342" spans="1:14">
-      <c r="A342" s="8">
-        <v>43441</v>
-      </c>
-      <c r="B342" s="4"/>
-      <c r="C342"/>
-      <c r="D342"/>
-      <c r="E342"/>
-      <c r="F342"/>
-      <c r="G342"/>
-      <c r="H342"/>
-      <c r="I342"/>
-      <c r="J342"/>
-      <c r="K342"/>
-      <c r="L342"/>
-      <c r="M342"/>
-      <c r="N342"/>
-    </row>
-    <row r="343" spans="1:14">
-      <c r="A343" s="8">
-        <v>43442</v>
-      </c>
-      <c r="B343" s="4"/>
-      <c r="C343"/>
-      <c r="D343"/>
-      <c r="E343"/>
-      <c r="F343"/>
-      <c r="G343"/>
-      <c r="H343"/>
-      <c r="I343"/>
-      <c r="J343"/>
-      <c r="K343"/>
-      <c r="L343"/>
-      <c r="M343"/>
-      <c r="N343"/>
-    </row>
-    <row r="344" spans="1:14">
-      <c r="A344" s="8">
-        <v>43443</v>
-      </c>
-      <c r="B344" s="4"/>
-      <c r="C344"/>
-      <c r="D344"/>
-      <c r="E344"/>
-      <c r="F344"/>
-      <c r="G344"/>
-      <c r="H344"/>
-      <c r="I344"/>
-      <c r="J344"/>
-      <c r="K344"/>
-      <c r="L344"/>
-      <c r="M344"/>
-      <c r="N344"/>
-    </row>
-    <row r="345" spans="1:14">
-      <c r="A345" s="8">
-        <v>43444</v>
-      </c>
-      <c r="B345" s="4"/>
-      <c r="C345"/>
-      <c r="D345"/>
-      <c r="E345"/>
-      <c r="F345"/>
-      <c r="G345"/>
-      <c r="H345"/>
-      <c r="I345"/>
-      <c r="J345"/>
-      <c r="K345"/>
-      <c r="L345"/>
-      <c r="M345"/>
-      <c r="N345"/>
-    </row>
-    <row r="346" spans="1:14">
-      <c r="A346" s="8">
-        <v>43445</v>
-      </c>
-      <c r="B346" s="4"/>
-      <c r="C346"/>
-      <c r="D346"/>
-      <c r="E346"/>
-      <c r="F346"/>
-      <c r="G346"/>
-      <c r="H346"/>
-      <c r="I346"/>
-      <c r="J346"/>
-      <c r="K346"/>
-      <c r="L346"/>
-      <c r="M346"/>
-      <c r="N346"/>
-    </row>
-    <row r="347" spans="1:14">
-      <c r="A347" s="8">
-        <v>43446</v>
-      </c>
-      <c r="B347" s="4"/>
-      <c r="C347"/>
-      <c r="D347"/>
-      <c r="E347"/>
-      <c r="F347"/>
-      <c r="G347"/>
-      <c r="H347"/>
-      <c r="I347"/>
-      <c r="J347"/>
-      <c r="K347"/>
-      <c r="L347"/>
-      <c r="M347"/>
-      <c r="N347"/>
-    </row>
-    <row r="348" spans="1:14">
-      <c r="A348" s="8">
-        <v>43447</v>
-      </c>
-      <c r="B348" s="4"/>
-      <c r="C348"/>
-      <c r="D348"/>
-      <c r="E348"/>
-      <c r="F348"/>
-      <c r="G348"/>
-      <c r="H348"/>
-      <c r="I348"/>
-      <c r="J348"/>
-      <c r="K348"/>
-      <c r="L348"/>
-      <c r="M348"/>
-      <c r="N348"/>
-    </row>
-    <row r="349" spans="1:14">
-      <c r="A349" s="8">
-        <v>43448</v>
-      </c>
-      <c r="B349" s="4"/>
-      <c r="C349"/>
-      <c r="D349"/>
-      <c r="E349"/>
-      <c r="F349"/>
-      <c r="G349"/>
-      <c r="H349"/>
-      <c r="I349"/>
-      <c r="J349"/>
-      <c r="K349"/>
-      <c r="L349"/>
-      <c r="M349"/>
-      <c r="N349"/>
-    </row>
-    <row r="350" spans="1:14">
-      <c r="A350" s="8">
-        <v>43449</v>
-      </c>
-      <c r="B350" s="4"/>
-      <c r="C350"/>
-      <c r="D350"/>
-      <c r="E350"/>
-      <c r="F350"/>
-      <c r="G350"/>
-      <c r="H350"/>
-      <c r="I350"/>
-      <c r="J350"/>
-      <c r="K350"/>
-      <c r="L350"/>
-      <c r="M350"/>
-      <c r="N350"/>
-    </row>
-    <row r="351" spans="1:14">
-      <c r="A351" s="8">
-        <v>43450</v>
-      </c>
-      <c r="B351" s="4"/>
-      <c r="C351"/>
-      <c r="D351"/>
-      <c r="E351"/>
-      <c r="F351"/>
-      <c r="G351"/>
-      <c r="H351"/>
-      <c r="I351"/>
-      <c r="J351"/>
-      <c r="K351"/>
-      <c r="L351"/>
-      <c r="M351"/>
-      <c r="N351"/>
-    </row>
-    <row r="352" spans="1:14">
-      <c r="A352" s="8">
-        <v>43451</v>
-      </c>
-      <c r="B352" s="4"/>
-      <c r="C352"/>
-      <c r="D352"/>
-      <c r="E352"/>
-      <c r="F352"/>
-      <c r="G352"/>
-      <c r="H352"/>
-      <c r="I352"/>
-      <c r="J352"/>
-      <c r="K352"/>
-      <c r="L352"/>
-      <c r="M352"/>
-      <c r="N352"/>
-    </row>
-    <row r="353" spans="1:14">
-      <c r="A353" s="8">
-        <v>43452</v>
-      </c>
-      <c r="B353" s="4"/>
-      <c r="C353"/>
-      <c r="D353"/>
-      <c r="E353"/>
-      <c r="F353"/>
-      <c r="G353"/>
-      <c r="H353"/>
-      <c r="I353"/>
-      <c r="J353"/>
-      <c r="K353"/>
-      <c r="L353"/>
-      <c r="M353"/>
-      <c r="N353"/>
-    </row>
-    <row r="354" spans="1:14">
-      <c r="A354" s="8">
-        <v>43453</v>
-      </c>
-      <c r="B354" s="4"/>
-      <c r="C354"/>
-      <c r="D354"/>
-      <c r="E354"/>
-      <c r="F354"/>
-      <c r="G354"/>
-      <c r="H354"/>
-      <c r="I354"/>
-      <c r="J354"/>
-      <c r="K354"/>
-      <c r="L354"/>
-      <c r="M354"/>
-      <c r="N354"/>
-    </row>
-    <row r="355" spans="1:14">
-      <c r="A355" s="8">
-        <v>43454</v>
-      </c>
-      <c r="B355" s="4"/>
-      <c r="C355"/>
-      <c r="D355"/>
-      <c r="E355"/>
-      <c r="F355"/>
-      <c r="G355"/>
-      <c r="H355"/>
-      <c r="I355"/>
-      <c r="J355"/>
-      <c r="K355"/>
-      <c r="L355"/>
-      <c r="M355"/>
-      <c r="N355"/>
-    </row>
-    <row r="356" spans="1:14">
-      <c r="A356" s="8">
-        <v>43455</v>
-      </c>
-      <c r="B356" s="4"/>
-      <c r="C356"/>
-      <c r="D356"/>
-      <c r="E356"/>
-      <c r="F356"/>
-      <c r="G356"/>
-      <c r="H356"/>
-      <c r="I356"/>
-      <c r="J356"/>
-      <c r="K356"/>
-      <c r="L356"/>
-      <c r="M356"/>
-      <c r="N356"/>
-    </row>
-    <row r="357" spans="1:14">
-      <c r="A357" s="8">
-        <v>43456</v>
-      </c>
-      <c r="B357" s="4"/>
-      <c r="C357"/>
-      <c r="D357"/>
-      <c r="E357"/>
-      <c r="F357"/>
-      <c r="G357"/>
-      <c r="H357"/>
-      <c r="I357"/>
-      <c r="J357"/>
-      <c r="K357"/>
-      <c r="L357"/>
-      <c r="M357"/>
-      <c r="N357"/>
-    </row>
-    <row r="358" spans="1:14">
-      <c r="A358" s="8">
-        <v>43457</v>
-      </c>
-      <c r="B358" s="4"/>
-      <c r="C358"/>
-      <c r="D358"/>
-      <c r="E358"/>
-      <c r="F358"/>
-      <c r="G358"/>
-      <c r="H358"/>
-      <c r="I358"/>
-      <c r="J358"/>
-      <c r="K358"/>
-      <c r="L358"/>
-      <c r="M358"/>
-      <c r="N358"/>
-    </row>
-    <row r="359" spans="1:14">
-      <c r="A359" s="8">
-        <v>43458</v>
-      </c>
-      <c r="B359" s="4"/>
-      <c r="C359"/>
-      <c r="D359"/>
-      <c r="E359"/>
-      <c r="F359"/>
-      <c r="G359"/>
-      <c r="H359"/>
-      <c r="I359"/>
-      <c r="J359"/>
-      <c r="K359"/>
-      <c r="L359"/>
-      <c r="M359"/>
-      <c r="N359"/>
-    </row>
-    <row r="360" spans="1:14">
-      <c r="A360" s="8">
-        <v>43459</v>
-      </c>
-      <c r="B360" s="4"/>
-      <c r="C360"/>
-      <c r="D360"/>
-      <c r="E360"/>
-      <c r="F360"/>
-      <c r="G360"/>
-      <c r="H360"/>
-      <c r="I360"/>
-      <c r="J360"/>
-      <c r="K360"/>
-      <c r="L360"/>
-      <c r="M360"/>
-      <c r="N360"/>
-    </row>
-    <row r="361" spans="1:14">
-      <c r="A361" s="8">
-        <v>43460</v>
-      </c>
-      <c r="B361" s="4"/>
-      <c r="C361"/>
-      <c r="D361"/>
-      <c r="E361"/>
-      <c r="F361"/>
-      <c r="G361"/>
-      <c r="H361"/>
-      <c r="I361"/>
-      <c r="J361"/>
-      <c r="K361"/>
-      <c r="L361"/>
-      <c r="M361"/>
-      <c r="N361"/>
-    </row>
-    <row r="362" spans="1:14">
-      <c r="A362" s="8">
-        <v>43461</v>
-      </c>
-      <c r="B362" s="4"/>
-      <c r="C362"/>
-      <c r="D362"/>
-      <c r="E362"/>
-      <c r="F362"/>
-      <c r="G362"/>
-      <c r="H362"/>
-      <c r="I362"/>
-      <c r="J362"/>
-      <c r="K362"/>
-      <c r="L362"/>
-      <c r="M362"/>
-      <c r="N362"/>
-    </row>
-    <row r="363" spans="1:14">
-      <c r="A363" s="8">
-        <v>43462</v>
-      </c>
-      <c r="B363" s="4"/>
-      <c r="C363"/>
-      <c r="D363"/>
-      <c r="E363"/>
-      <c r="F363"/>
-      <c r="G363"/>
-      <c r="H363"/>
-      <c r="I363"/>
-      <c r="J363"/>
-      <c r="K363"/>
-      <c r="L363"/>
-      <c r="M363"/>
-      <c r="N363"/>
-    </row>
-    <row r="364" spans="1:14">
-      <c r="A364" s="8">
-        <v>43463</v>
-      </c>
-      <c r="B364" s="4"/>
-      <c r="C364"/>
-      <c r="D364"/>
-      <c r="E364"/>
-      <c r="F364"/>
-      <c r="G364"/>
-      <c r="H364"/>
-      <c r="I364"/>
-      <c r="J364"/>
-      <c r="K364"/>
-      <c r="L364"/>
-      <c r="M364"/>
-      <c r="N364"/>
-    </row>
-    <row r="365" spans="1:14">
-      <c r="A365" s="8">
-        <v>43464</v>
-      </c>
-      <c r="B365" s="4"/>
-      <c r="C365"/>
-      <c r="D365"/>
-      <c r="E365"/>
-      <c r="F365"/>
-      <c r="G365"/>
-      <c r="H365"/>
-      <c r="I365"/>
-      <c r="J365"/>
-      <c r="K365"/>
-      <c r="L365"/>
-      <c r="M365"/>
-      <c r="N365"/>
-    </row>
-    <row r="366" spans="1:14">
-      <c r="A366" s="8">
-        <v>43465</v>
-      </c>
-      <c r="B366" s="4"/>
-      <c r="C366"/>
-      <c r="D366"/>
-      <c r="E366"/>
-      <c r="F366"/>
-      <c r="G366"/>
-      <c r="H366"/>
-      <c r="I366"/>
-      <c r="J366"/>
-      <c r="K366"/>
-      <c r="L366"/>
-      <c r="M366"/>
-      <c r="N366"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>